--- a/subsetting_results/subsetting-tasql-snails-Native-gpt41.xlsx
+++ b/subsetting_results/subsetting-tasql-snails-Native-gpt41.xlsx
@@ -845,7 +845,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataSnakeDataCollection.LocationID'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.LocationID', 'tblFieldDataTurtleMeasurements.LocationID'}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Trap_#'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.Trap_#', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID', 'tblFieldDataMinnowTrapSurveys.Stage'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tblFieldDataMinnowTrapSurveys.Count', 'tblFieldDataMinnowTrapSurveys.LocationID'}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.LocationID', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.TempC', 'tblFieldDataAmphibianCallCounts.LocationID', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1325,17 +1325,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.Conductivity', 'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.TempC'}</t>
+          <t>{'tblFieldDataWaterProperties.pH', 'tblFieldDataWaterProperties.Salinity', 'tblFieldDataWaterProperties.TempC', 'tblFieldDataWaterProperties.Conductivity'}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.RecordID', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataWaterProperties.RecordID'}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>{'tblFieldDataWaterProperties.LocationID', 'tblFieldDataTurtleMeasurements.LocationID'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataWaterProperties.LocationID'}</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.Sex', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.RecordID'}</t>
+          <t>{'tblFieldDataTurtleTrapSurveys.RecordID', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.RecordID', 'tblFieldDataTurtleMeasurements.Comments', 'tblFieldDataTurtleTrapSurveys.Comments', 'tblFieldDataTurtleTrapSurveys.Sex'}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleTrapSurveys.Species_Code', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleMeasurements.Species_Code', 'tblFieldDataTurtleMeasurements.LocationID', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataTurtleTrapSurveys.LocationID'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Species_Code', 'tblFieldDataTurtleMeasurements.EventID', 'tblFieldDataTurtleTrapSurveys.LocationID', 'tblFieldDataTurtleTrapSurveys.Species_Code', 'tblFieldDataTurtleTrapSurveys.EventID', 'tblFieldDataTurtleMeasurements.LocationID'}</t>
         </is>
       </c>
       <c r="U12" t="n">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Sex'}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1522,35 +1522,35 @@
         <v>8445</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection'}</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.SVL'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataSnakeDataCollection.Weight', 'tblFieldDataSnakeDataCollection.SVL'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Sex', 'tblFieldDataSnakeDataCollection.SVL', 'tblFieldDataSnakeDataCollection.Weight'}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements', 'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tlinkObservers.EventID', 'Observer_LU.Agency/Title', 'tblFieldDataTurtleMeasurements.EventID'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.Agency/Title'}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>{'tblEvents.EventID', 'tblFieldDataTurtleMeasurements.Age'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Age', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'tblEvents', 'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblEvents.EventID', 'Observer_LU.LastName', 'tlinkObservers.EventID', 'Observer_LU.FirstName', 'tblEvents.Year'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.FirstName', 'Observer_LU.LastName', 'tblEvents.Year', 'tblEvents.EventID'}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements', 'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tblFieldDataTurtleMeasurements', 'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'Observer_LU.LastName', 'tlinkObservers.EventID', 'Observer_LU.FirstName', 'tblFieldDataTurtleMeasurements.EventID'}</t>
+          <t>{'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'Observer_LU.ObsInits', 'tblFieldDataTurtleMeasurements.EventID', 'Observer_LU.FirstName', 'Observer_LU.LastName'}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTimeConstrainedSearches', 'tblLocationsPoints'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataTimeConstrainedSearches'}</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblFieldDataTimeConstrainedSearches.LocationID'}</t>
+          <t>{'tblLocationsPoints.UTMY', 'tblFieldDataTimeConstrainedSearches.LocationID', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.UTMX'}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'tluStage.Stage', 'tblFieldDataMinnowTrapSurveys.Stage', 'tluStage.Description'}</t>
+          <t>{'tblFieldDataMinnowTrapSurveys.Stage', 'tluStage.Stage', 'tluStage.Description'}</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>{'tblAbundance_LU.AbundanceID', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceText'}</t>
+          <t>{'tblAbundance_LU.AbundanceText', 'tblAbundance_LU.Abundance', 'tblAbundance_LU.AbundanceID'}</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.LocationID'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Type'}</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.Type', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Board_#'}</t>
+          <t>{'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.LocationID', 'tblFieldDataCoverBoard.Type'}</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblEventDataHerps'}</t>
+          <t>{'tblEventDataHerps', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -2525,12 +2525,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.LocationID'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblEventDataHerps.AirTemp', 'tblFieldDataCoverBoard.Type', 'tblEventDataHerps.EventID', 'tblFieldDataCoverBoard.EventID'}</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblLocations.SiteID', 'tblEventDataHerps.Weather'}</t>
+          <t>{'tblLocations.LocationID', 'tblEventDataHerps.Weather', 'tblLocations.SiteID'}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>{'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior', 'tblFieldDataSnakeDataCollection.Notes'}</t>
+          <t>{'tblFieldDataSnakeDataCollection.Notes', 'tblFieldDataSnakeDataCollection.CaptureMethod', 'tblFieldDataSnakeDataCollection.Behavior'}</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard', 'tblLocations', 'tblLocationsPoints'}</t>
+          <t>{'tblLocationsPoints', 'tblFieldDataCoverBoard', 'tblLocations'}</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>{'tblLocations.LocationID', 'tblLocations.SiteID', 'tblFieldDataCoverBoard.Board_#', 'tblFieldDataCoverBoard.SnakeID', 'tblFieldDataCoverBoard.LocationID', 'tblLocationsPoints.UTMY', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.PointID'}</t>
+          <t>{'tblFieldDataCoverBoard.LocationID', 'tblLocations.SiteID', 'tblLocationsPoints.UTMY', 'tblFieldDataCoverBoard.Board_#', 'tblLocationsPoints.UTMX', 'tblLocationsPoints.LocationID', 'tblLocationsPoints.PointID', 'tblFieldDataCoverBoard.SnakeID', 'tblLocations.LocationID'}</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'tblEvents', 'Observer_LU', 'tlinkObservers', 'tblFieldDataCoverBoard'}</t>
+          <t>{'tblEvents', 'tlinkObservers', 'Observer_LU', 'tblFieldDataCoverBoard'}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'tblFieldDataCoverBoard.EventID', 'Observer_LU.ObsInits', 'tblEvents.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblFieldDataCoverBoard.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits', 'tblEvents.EventID', 'Observer_LU.ObsInits'}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.WaterTemp', 'tblEventDataHerps.Weather'}</t>
+          <t>{'tblEventDataHerps.AirTemp', 'tblEventDataHerps.Weather', 'tblEventDataHerps.WaterTemp'}</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'Observer_LU', 'tlinkObservers'}</t>
+          <t>{'tlinkObservers', 'Observer_LU'}</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'Observer_LU.ObsInits', 'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'tlinkObservers.ObsInits'}</t>
+          <t>{'tblEventDataHerps.EventID', 'tlinkObservers.EventID', 'Observer_LU.ObsInits', 'tlinkObservers.ObsInits'}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>{'tluProject.Description', 'tluProject.Project'}</t>
+          <t>{'tluProject.Project', 'tluProject.Description'}</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>{'tluParkCode.PARKCODE', 'tluParkCode.PARKTYPE'}</t>
+          <t>{'tluParkCode.PARKTYPE', 'tluParkCode.PARKCODE'}</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>{'tluEvidenceCode.Text', 'tluEvidenceCode.Evidence_Code'}</t>
+          <t>{'tluEvidenceCode.Evidence_Code', 'tluEvidenceCode.Text'}</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>{'tluMicroHabitat.Habitat', 'tluMicroHabitat.Description'}</t>
+          <t>{'tluMicroHabitat.Description', 'tluMicroHabitat.Habitat'}</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>{'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Width', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Plastron_Length'}</t>
+          <t>{'tblFieldDataTurtleMeasurements.Plastron_Length', 'tblFieldDataTurtleMeasurements.Sex', 'tblFieldDataTurtleMeasurements.Weight', 'tblFieldDataTurtleMeasurements.Carapace_Length', 'tblFieldDataTurtleMeasurements.Plastron_Width', 'tblFieldDataTurtleMeasurements.Carapace_Width'}</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.subgenus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.subgenus'}</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -3922,35 +3922,35 @@
         <v>7664</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -3960,12 +3960,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>{'tbl_Nests', 'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.Nest_ID'}</t>
+          <t>{'tbl_Nests.Nest_ID'}</t>
         </is>
       </c>
       <c r="U44" t="n">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Decay', 'tbl_Deadwood.Event_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Event_ID', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4405,32 +4405,32 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Locations'}</t>
+          <t>{'tbl_Events', 'tbl_Nests', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -4440,12 +4440,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.X_Coord', 'tbl_Events.Event_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Plot_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Directions'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Events.Event_ID', 'tbl_Locations.Y_Coord', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Plot_ID', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Event_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U50" t="n">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tbl_Overstory.DBH', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tlu_Tree_Cond', 'tbl_Overstory'}</t>
+          <t>{'tlu_Tree_Cond', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.SpCode', 'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode'}</t>
+          <t>{'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density'}</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Directions', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Directions', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Notes', 'tbl_Locations.SiteDescription', 'tbl_Locations.Elevation'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Elevation', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Cover', 'tbl_Nests.Event_ID'}</t>
+          <t>{'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -5325,7 +5325,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH'}</t>
+          <t>{'tbl_WitnessTrees.Witness_Azimuth', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Witness_stake'}</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_WitnessTrees.Witness_SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails', 'tbl_Events', 'tbl_Locations'}</t>
+          <t>{'tbl_Events', 'tlu_Roads_and_Trails', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>{'tlu_Roads_and_Trails.ListedName', 'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Trail', 'tbl_Events.Location_ID', 'tlu_Roads_and_Trails.ValidName'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Roads_and_Trails.ListedName', 'tlu_Roads_and_Trails.ValidName', 'tbl_Locations.Trail', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames', 'tbl_Locations', 'tbl_Tree_Tags'}</t>
+          <t>{'tbl_Tree_Tags', 'tlu_PlaceNames', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tlu_PlaceNames.State', 'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tbl_Locations.PlaceNameID', 'tbl_Tree_Tags.Location_ID'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tlu_PlaceNames.State', 'tbl_Locations.PlaceNameID'}</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.Name', 'tlu_PlaceNames.utmE'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Y_Coord', 'tlu_topo_position.ID'}</t>
+          <t>{'tbl_Locations.Topo_Position', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition'}</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>{'tlu_Live_Dead.Cond_Text', 'tlu_Live_Dead.Cond_Num'}</t>
+          <t>{'tlu_Live_Dead.Cond_Num', 'tlu_Live_Dead.Cond_Text'}</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Locations', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Locations', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -6045,17 +6045,17 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Locations.Location_ID', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tree_Tag_ID', 'tlu_PlaceNames.County', 'tlu_PlaceNames.ID', 'tbl_Locations.PlaceNameID', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tlu_PlaceNames.ID', 'tlu_PlaceNames.County', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Locations.PlaceNameID', 'tbl_Overstory.TreeTag'}</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.Event_ID', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID'}</t>
         </is>
       </c>
       <c r="U70" t="n">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Overstory.SpCode', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Overstory.SpCode', 'tbl_Overstory.Overstory_ID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Xcoord'}</t>
+          <t>{'tbl_Tree_Tags.Tag', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.Ycoord'}</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.R2'}</t>
+          <t>{'tbl_Nests.R2', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>{'tlu_Presence', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Presence'}</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Length', 'tbl_Deadwood.Decay'}</t>
+          <t>{'tbl_Deadwood.Decay', 'tbl_Deadwood.Length'}</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -6565,32 +6565,32 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -6600,12 +6600,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tbl_Deadwood.MPD', 'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U77" t="n">
@@ -6645,32 +6645,32 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -6680,12 +6680,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.DecayStage_ID', 'tlu_DecayStage.DecayStage_Descr'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tlu_DecayStage.DecayStage_Descr', 'tbl_Deadwood.Decay'}</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Length', 'tbl_Deadwood.Decay'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U78" t="n">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Accuracy_Notes', 'tbl_Locations.SiteDescription', 'tbl_Locations.Slope_shape', 'tbl_Locations.Loc_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Slope'}</t>
+          <t>{'tbl_Locations.Slope', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Aspect', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -6930,12 +6930,12 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.Event_ID', 'tlu_Live_Dead.Cond_Text', 'tbl_Saplings.Saplings_ID'}</t>
+          <t>{'tbl_Saplings.Event_ID', 'tbl_Saplings.Saplings_ID', 'tlu_Live_Dead.Cond_Text'}</t>
         </is>
       </c>
       <c r="U81" t="n">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>{'Breeding_Codes', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Breeding_Codes'}</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'Breeding_Codes.Definition', 'Breeding_Codes.Breed', 'VERTEBRATES.BREED'}</t>
+          <t>{'Breeding_Codes.Breed', 'VERTEBRATES.BREED', 'Breeding_Codes.Definition', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>{'Class', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Class'}</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Class', 'INVERTEBRATES.Genus_species'}</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'Invert_Family'}</t>
+          <t>{'Invert_Family', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>{'Roadkill.Year', 'Roadkill.Comments'}</t>
+          <t>{'Roadkill.Comments', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>{'Roadkill', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Roadkill'}</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>{'Roadkill.Date', 'VERTEBRATES.Date'}</t>
+          <t>{'VERTEBRATES.Date', 'Roadkill.Date'}</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -7762,35 +7762,35 @@
         <v>2787</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Species', 'Roadkill.number_killed', 'Roadkill.Month', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>{'Roadkill.Species', 'Roadkill.Month', 'Roadkill.number_killed', 'Roadkill.Year'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>{'HABITAT_CODES.Definition', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
+          <t>{'VERTEBRATES.Habitat', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Habitat', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Observer', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Date', 'INVERTEBRATES.Date'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES', 'HABITAT_CODES'}</t>
+          <t>{'VERTEBRATES', 'HABITAT_CODES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'INVERTEBRATES.Observer', 'VERTEBRATES.Date', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Date', 'HABITAT_CODES.Code'}</t>
+          <t>{'INVERTEBRATES.Date', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Habitat', 'HABITAT_CODES.Code', 'VERTEBRATES.Observer', 'VERTEBRATES.Date', 'HABITAT_CODES.Definition', 'INVERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species'}</t>
+          <t>{'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.UTMN', 'INVERTEBRATES.UTME', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'INVERTEBRATES.UTMN', 'INVERTEBRATES.UTME'}</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.UTME'}</t>
+          <t>{'VERTEBRATES.UTME', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="U100" t="n">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Common_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.UTME'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.UTMN', 'VERTEBRATES.Common_Name', 'VERTEBRATES.UTME'}</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>{'Roadkill', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Roadkill'}</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>{'Roadkill.Species', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Species'}</t>
+          <t>{'Roadkill.Species', 'VERTEBRATES.Species', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Family', 'INVERTEBRATES.Number'}</t>
+          <t>{'INVERTEBRATES.Number', 'INVERTEBRATES.Family'}</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.OBS_TYPE'}</t>
+          <t>{'INVERTEBRATES.OBS_TYPE', 'INVERTEBRATES.Location'}</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Survey'}</t>
+          <t>{'VERTEBRATES.Survey', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Common_Name', 'VERTEBRATES.CLASS'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.CLASS', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="U108" t="n">
@@ -9250,7 +9250,7 @@
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>{'Class.Class', 'Class.Field2'}</t>
+          <t>{'Class.Field2', 'Class.Class'}</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Species', 'VERTEBRATES.Habitat', 'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'HABITAT_CODES.Code', 'VERTEBRATES.Number'}</t>
+          <t>{'VERTEBRATES.Scientific_Name', 'VERTEBRATES.Species', 'VERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'HABITAT_CODES.Definition', 'VERTEBRATES.Number', 'HABITAT_CODES.Code'}</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Scientific_Name', 'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME'}</t>
+          <t>{'WILDLIFE_MASTERLIST.SCIENTIFIC_NAME', 'VERTEBRATES.Scientific_Name'}</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'WILDLIFE_MASTERLIST'}</t>
+          <t>{'WILDLIFE_MASTERLIST', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
@@ -9602,35 +9602,35 @@
         <v>2800</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill'}</t>
         </is>
       </c>
       <c r="P115" t="inlineStr">
@@ -9640,22 +9640,22 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>{'Roadkill'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Year'}</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Roadkill.Location'}</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>{'Roadkill.HWY_Mile_Marker', 'Roadkill.Year'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U115" t="n">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.OBS_TYPE'}</t>
+          <t>{'VERTEBRATES.OBS_TYPE', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Common_Name', 'VERTEBRATES.Notes'}</t>
+          <t>{'VERTEBRATES.Common_Name', 'VERTEBRATES.Observer', 'VERTEBRATES.Notes'}</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -9880,12 +9880,12 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>{'Class', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'Class'}</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES.Location', 'INVERTEBRATES.Common_Name', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Family', 'INVERTEBRATES.Order'}</t>
+          <t>{'INVERTEBRATES.Family', 'INVERTEBRATES.Order', 'INVERTEBRATES.Location', 'INVERTEBRATES.Genus_species', 'INVERTEBRATES.Class', 'INVERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -9975,7 +9975,7 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Observer', 'VERTEBRATES.Number', 'INVERTEBRATES.Number'}</t>
+          <t>{'VERTEBRATES.Number', 'INVERTEBRATES.Number', 'VERTEBRATES.Observer'}</t>
         </is>
       </c>
       <c r="U119" t="n">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>{'INVERTEBRATES', 'VERTEBRATES'}</t>
+          <t>{'VERTEBRATES', 'INVERTEBRATES'}</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>{'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name', 'INVERTEBRATES.Common_Name'}</t>
+          <t>{'INVERTEBRATES.Common_Name', 'VERTEBRATES.Habitat', 'INVERTEBRATES.Habitat', 'VERTEBRATES.Common_Name'}</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -10205,7 +10205,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Location_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Notes'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Location_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Locations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Event_Notes'}</t>
+          <t>{'tbl_Event_Details.Event_Notes', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -10455,7 +10455,7 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.MicroHab', 'tbl_Events.Event_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.MicroHab'}</t>
         </is>
       </c>
       <c r="U125" t="n">
@@ -10562,35 +10562,35 @@
         <v>5917</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log'}</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
@@ -10600,12 +10600,12 @@
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Field', 'tbl_Edit_Log.Table'}</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>{'tbl_Edit_Log.Reason', 'tbl_Edit_Log.Date_Change', 'tbl_Edit_Log.Table', 'tbl_Edit_Log.Field'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U127" t="n">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.SurfaceWater', 'tbl_MicroHabitat.Soil_Dist'}</t>
+          <t>{'tbl_MicroHabitat.Soil_Dist', 'tbl_MicroHabitat.SurfaceWater'}</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -10722,35 +10722,35 @@
         <v>5991</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P129" t="inlineStr">
@@ -10760,12 +10760,12 @@
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_MicroHabitat', 'tbl_Locations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.LightIndex', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Locations.Location_ID', 'tbl_MicroHabitat.VegHeight', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.Event_ID'}</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Locations.Elevation', 'tbl_Events.Event_ID', 'tbl_MicroHabitat.LightIndex', 'tbl_MicroHabitat.Litter', 'tbl_Events.Start_Date', 'tbl_MicroHabitat.Event_ID', 'tbl_Events.Location_ID', 'tbl_MicroHabitat.Evergreen', 'tbl_MicroHabitat.VegHeight'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U129" t="n">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LABE.SampleYear', 'tlu_Species_LABE.Species'}</t>
+          <t>{'tlu_Species_LABE.Species', 'tlu_Species_LABE.SampleYear'}</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW', 'tlu_Species_WHIS'}</t>
+          <t>{'tlu_Species_WHIS', 'tlu_Species_REDW'}</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>{'tlu_Species_REDW.Species', 'tlu_Species_WHIS.Species'}</t>
+          <t>{'tlu_Species_WHIS.Species', 'tlu_Species_REDW.Species'}</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO', 'tlu_Species_ORCA'}</t>
+          <t>{'tlu_Species_ORCA', 'tlu_Species_LAVO'}</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>{'tlu_Species_LAVO.Species', 'tlu_Species_ORCA.Species'}</t>
+          <t>{'tlu_Species_ORCA.Species', 'tlu_Species_LAVO.Species'}</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Position_Title', 'tlu_Contacts.Last_Name', 'tlu_Contacts.City', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.First_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.State_Code', 'tlu_Contacts.Zip_Code', 'tlu_Contacts.City', 'tlu_Contacts.Position_Title', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>{'tlu_Enumerations.Enum_Code', 'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Description'}</t>
+          <t>{'tlu_Enumerations.Enum_Description', 'tlu_Enumerations.Enum_Group', 'tlu_Enumerations.Enum_Code'}</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Db_Revisions'}</t>
+          <t>{'tbl_Db_Revisions', 'tlu_Contacts'}</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -11720,12 +11720,12 @@
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>{'xref_Event_Contacts', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>{'tbl_Db_Revisions.Revision_Desc', 'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Reason', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tbl_Db_Revisions.Revision_Reason', 'tlu_Contacts.First_Name', 'tbl_Db_Revisions.Revision_Desc'}</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.SSMA_TimeStamp', 'xref_Event_Contacts.Upload_Date', 'xref_Event_Contacts.Contact_ID', 'tbl_Event_Details.SSMA_TimeStamp', 'tbl_Db_Revisions.SSMA_TimeStamp'}</t>
+          <t>{'tbl_Db_Revisions.SSMA_TimeStamp', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.SSMA_TimeStamp', 'xref_Event_Contacts.Upload_Date', 'tbl_Event_Details.SSMA_TimeStamp'}</t>
         </is>
       </c>
       <c r="U141" t="n">
@@ -11842,35 +11842,35 @@
         <v>5916</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -11880,12 +11880,12 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Route', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Length', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID'}</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Desc', 'tbl_Sites.Length', 'tbl_Sites.Route', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_Start_Y'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U143" t="n">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_Y'}</t>
+          <t>{'tbl_Sites.Site_End_X', 'tbl_Sites.Site_Start_Y', 'tbl_Sites.Site_End_Y', 'tbl_Sites.Site_Start_X', 'tbl_Sites.Site_Name'}</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -12002,35 +12002,35 @@
         <v>5931</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -12055,7 +12055,7 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Location_ID', 'tbl_Sites.Site_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U145" t="n">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord', 'tbl_Locations.Loc_Name', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
@@ -12162,35 +12162,35 @@
         <v>5931</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
@@ -12200,12 +12200,12 @@
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'xref_Event_Contacts'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'xref_Event_Contacts.Event_ID', 'tlu_Contacts.First_Name', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.Contact_ID'}</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U147" t="n">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'tbl_Events', 'xref_Event_Contacts'}</t>
+          <t>{'tbl_Events', 'tlu_Contacts', 'xref_Event_Contacts'}</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Position_Title', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
@@ -12322,35 +12322,35 @@
         <v>5950</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
@@ -12360,12 +12360,12 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Locations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
@@ -12375,7 +12375,7 @@
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Loc_Name', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U149" t="n">
@@ -12402,35 +12402,35 @@
         <v>5989</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -12440,12 +12440,12 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites.Site_Desc', 'tbl_Locations.Location_ID', 'tbl_Events.Location_ID', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -12455,7 +12455,7 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Desc', 'tbl_Locations.Location_ID', 'tbl_Sites.Site_ID', 'tbl_Events.Location_ID', 'tbl_Locations.Site_ID', 'tbl_Events.Event_ID', 'tbl_Sites.Site_Name'}</t>
+          <t>{'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="U150" t="n">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P151" t="inlineStr">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_ID', 'tbl_Locations.HDOP', 'tbl_Sites.Site_Name', 'tbl_Locations.EPE', 'tbl_Locations.PDOP', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Locations.PDOP', 'tbl_Locations.HDOP', 'tbl_Sites.Site_Name', 'tbl_Locations.EPE', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.County', 'tbl_Locations.Loc_Type'}</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Locations.County'}</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
@@ -12722,35 +12722,35 @@
         <v>5956</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -12760,12 +12760,12 @@
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Loc_Type', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Loc_Type'}</t>
+          <t>{'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="U154" t="n">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Subwatershed', 'tbl_Locations.Watershed', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tbl_Locations.Watershed', 'tbl_Events.Location_ID', 'tbl_Locations.Subwatershed'}</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Name', 'tbl_Locations.Datum', 'tbl_Locations.X_Coord', 'tbl_Locations.Coord_Units', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Loc_Type'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Coord_Units', 'tbl_Locations.Est_H_Error', 'tbl_Locations.Coord_System', 'tbl_Locations.Y_Coord', 'tbl_Locations.Datum', 'tbl_Locations.Accuracy_Notes', 'tbl_Locations.Loc_Type', 'tbl_Locations.Loc_Name'}</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>{'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.LandUse', 'tbl_Events.Event_ID', 'tbl_MacroHabitat.Hydrology', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.MacroHab', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.Aspect'}</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_MacroHabitat.Event_ID', 'tbl_MacroHabitat.MicroHab', 'tbl_MacroHabitat.LandUse', 'tbl_MacroHabitat.Slope', 'tbl_MacroHabitat.Aspect', 'tbl_MacroHabitat.Hydrology', 'tbl_MacroHabitat.MacroHab'}</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>{'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Herb'}</t>
+          <t>{'tbl_MicroHabitat.Rock', 'tbl_MicroHabitat.Litter', 'tbl_MicroHabitat.Deciduous', 'tbl_MicroHabitat.Phenology', 'tbl_MicroHabitat.WoodyDebris', 'tbl_MicroHabitat.BareGround', 'tbl_MicroHabitat.Shrub', 'tbl_MicroHabitat.CoverPercent', 'tbl_MicroHabitat.Herb'}</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Trail', 'tbl_Locations.Directions'}</t>
+          <t>{'tbl_Locations.Directions', 'tbl_Locations.Trail'}</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.SiteDescription', 'tbl_Locations.Location_ID', 'tbl_Events.Event_Date', 'tbl_Events.Location_ID'}</t>
+          <t>{'tbl_Locations.SiteDescription', 'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.Event_ID', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus'}</t>
+          <t>{'tlu_PlantSpecies.CommonName', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Nests.Event_ID'}</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.Event_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode'}</t>
+          <t>{'tbl_Overstory.DBH', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.Event_ID'}</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Event_ID', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.species', 'tbl_Events.Event_ID'}</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>{'tbl_Saplings.DClass2', 'tbl_Saplings.DClass4', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass3', 'tbl_Saplings.DClass1'}</t>
+          <t>{'tbl_Saplings.DClass4', 'tbl_Saplings.DClass1', 'tbl_Saplings.spcode', 'tbl_Saplings.DClass3', 'tbl_Saplings.DClass2'}</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Density', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Seedlings', 'tbl_Events', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.SpCode', 'tbl_Seedlings.Event_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
@@ -14125,7 +14125,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE'}</t>
+          <t>{'tlu_PlaceNames.utmE', 'tlu_PlaceNames.County', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State'}</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.Xcoord', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tbl_Tree_Tags.Ycoord', 'tbl_Tree_Tags.Tree_Tag_ID', 'tbl_Tree_Tags.SpCode', 'tbl_Tree_Tags.Xcoord'}</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags.Tag', 'tbl_Overstory.TreeTag', 'tbl_Overstory.TreeCond'}</t>
+          <t>{'tbl_Overstory.TreeCond', 'tbl_Overstory.TreeTag', 'tbl_Tree_Tags.Tag'}</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>{'tlu_Tree_Cond.TreeCond_Text', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Num'}</t>
+          <t>{'tlu_Tree_Cond.TreeCond_Num', 'tbl_Overstory.TreeCond', 'tlu_Tree_Cond.TreeCond_Text'}</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
@@ -14402,35 +14402,35 @@
         <v>7904</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees'}</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
@@ -14440,12 +14440,12 @@
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_DBH', 'tbl_WitnessTrees.Location_ID', 'tbl_WitnessTrees.Witness_stake'}</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>{'tbl_WitnessTrees.Location_ID', 'tbl_WitnessTrees.Witness_SpCode', 'tbl_WitnessTrees.Witness_stake', 'tbl_WitnessTrees.Witness_DBH'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U175" t="n">
@@ -14510,7 +14510,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos'}</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tbl_Overstory.CanPos', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
@@ -14590,7 +14590,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>{'tlu_Can_Pos', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tlu_Can_Pos', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
@@ -14605,7 +14605,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Overstory.SpCode', 'tlu_Can_Pos.CanPos_Num', 'tbl_Overstory.CanPos', 'tlu_PlantSpecies.CommonName', 'tlu_Can_Pos.CanPos_Name'}</t>
+          <t>{'tlu_Can_Pos.CanPos_Name', 'tlu_PlantSpecies.CommonName', 'tbl_Overstory.CanPos', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.SpeciesCode', 'tlu_Can_Pos.CanPos_Num'}</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tlu_topo_position'}</t>
+          <t>{'tlu_topo_position', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -14685,7 +14685,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Elevation', 'tbl_Locations.SiteDescription', 'tbl_Locations.Topo_Position', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope_shape', 'tlu_topo_position.ID', 'tbl_Locations.Aspect', 'tbl_Locations.Slope'}</t>
+          <t>{'tbl_Locations.Elevation', 'tbl_Locations.Topo_Position', 'tbl_Locations.Slope', 'tlu_topo_position.ID', 'tlu_topo_position.TopoPosition', 'tbl_Locations.Slope_shape', 'tbl_Locations.SiteDescription', 'tbl_Locations.Aspect'}</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls', 'tbl_Nests'}</t>
+          <t>{'tbl_Nests', 'tlu_Cover_Cls'}</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
@@ -14765,7 +14765,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>{'tlu_Cover_Cls.CoverClass_Text', 'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Num', 'tbl_Nests.Nest_ID'}</t>
+          <t>{'tbl_Nests.Nest_ID', 'tbl_Nests.SpCode', 'tbl_Nests.Cover', 'tlu_Cover_Cls.CoverClass_Text', 'tlu_Cover_Cls.CoverClass_Num'}</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
@@ -14830,7 +14830,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="T180" t="inlineStr">
         <is>
-          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tbl_Deadwood.Data_ID', 'tbl_Deadwood.SSMA_TimeStamp'}</t>
+          <t>{'tlu_DecayStage.SSMA_TimeStamp', 'tbl_Deadwood.SSMA_TimeStamp', 'tbl_Deadwood.Data_ID'}</t>
         </is>
       </c>
       <c r="U180" t="n">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tlu_DecayStage'}</t>
+          <t>{'tlu_DecayStage', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
@@ -15005,7 +15005,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr', 'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.MPD', 'tbl_Deadwood.Length'}</t>
+          <t>{'tlu_DecayStage.DecayStage_ID', 'tbl_Deadwood.Length', 'tbl_Deadwood.MPD', 'tbl_Deadwood.Decay', 'tlu_DecayStage.DecayStage_Descr'}</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
@@ -15085,17 +15085,17 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tbl_Nests.SpCode', 'tlu_PlantSpecies.SpeciesCode'}</t>
+          <t>{'tbl_Nests.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>{'tlu_R1_RestOfPlot.Pres_Num', 'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Text'}</t>
+          <t>{'tbl_Nests.R1', 'tlu_R1_RestOfPlot.Pres_Text', 'tlu_R1_RestOfPlot.Pres_Num'}</t>
         </is>
       </c>
       <c r="T183" t="inlineStr">
         <is>
-          <t>{'tbl_Nests.Presence_Second', 'tlu_Presence.Pres_Text', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.species', 'tbl_Nests.Presence_Second', 'tlu_Presence.Pres_Text'}</t>
         </is>
       </c>
       <c r="U183" t="n">
@@ -15122,35 +15122,35 @@
         <v>7906</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
@@ -15160,12 +15160,12 @@
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes'}</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
@@ -15175,7 +15175,7 @@
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesNotes', 'tlu_PlantSpecies.species'}</t>
+          <t>{'tlu_PlantSpecies.species'}</t>
         </is>
       </c>
       <c r="U184" t="n">
@@ -15245,7 +15245,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>{'tsys_App_Releases.Database_title', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name'}</t>
+          <t>{'tsys_App_Releases.Author_org_name', 'tsys_App_Releases.Author_email', 'tsys_App_Releases.Release_notes', 'tsys_App_Releases.Release_date', 'tsys_App_Releases.File_name', 'tsys_App_Releases.Database_title'}</t>
         </is>
       </c>
       <c r="S185" t="inlineStr">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Location_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID'}</t>
+          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID', 'tbl_Events.Location_ID'}</t>
         </is>
       </c>
       <c r="S187" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tlu_PlantSpecies', 'tbl_Overstory'}</t>
+          <t>{'tbl_Events', 'tbl_Overstory', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tbl_Overstory.DBH', 'tbl_Overstory.SpCode', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Overstory.Event_ID'}</t>
+          <t>{'tbl_Overstory.DBH', 'tbl_Events.Event_ID', 'tbl_Overstory.Event_ID', 'tbl_Events.Event_Date', 'tbl_Overstory.SpCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S188" t="inlineStr">
@@ -15762,35 +15762,35 @@
         <v>7886</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames'}</t>
         </is>
       </c>
       <c r="P192" t="inlineStr">
@@ -15800,12 +15800,12 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.State', 'tlu_PlaceNames.Name'}</t>
         </is>
       </c>
       <c r="S192" t="inlineStr">
@@ -15815,7 +15815,7 @@
       </c>
       <c r="T192" t="inlineStr">
         <is>
-          <t>{'tlu_PlaceNames.County', 'tlu_PlaceNames.State', 'tlu_PlaceNames.utmE', 'tlu_PlaceNames.utmN', 'tlu_PlaceNames.Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U192" t="n">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Y_Coord', 'tbl_Locations.X_Coord'}</t>
+          <t>{'tbl_Locations.X_Coord', 'tbl_Locations.Y_Coord'}</t>
         </is>
       </c>
       <c r="S194" t="inlineStr">
@@ -16002,35 +16002,35 @@
         <v>7920</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P195" t="inlineStr">
@@ -16040,12 +16040,12 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings', 'tlu_PlantSpecies'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Seedlings.Density', 'tlu_PlantSpecies.CommonName', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S195" t="inlineStr">
@@ -16055,7 +16055,7 @@
       </c>
       <c r="T195" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.SpeciesCode', 'tlu_PlantSpecies.species', 'tlu_PlantSpecies.genus', 'tbl_Seedlings.Density', 'tbl_Seedlings.SpCode', 'tlu_PlantSpecies.CommonName'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U195" t="n">
@@ -16082,35 +16082,35 @@
         <v>7925</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Seedlings'}</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -16120,12 +16120,12 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Seedlings'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Event_ID', 'tbl_Seedlings.Density', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID'}</t>
         </is>
       </c>
       <c r="S196" t="inlineStr">
@@ -16135,7 +16135,7 @@
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>{'tbl_Seedlings.Density', 'tbl_Events.Event_ID', 'tbl_Events.Event_Date', 'tbl_Seedlings.Event_ID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U196" t="n">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>{'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
+          <t>{'tlu_PlantSpecies', 'tbl_Tree_Tags'}</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>{'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.Location_ID', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tlu_PlantSpecies.SpeciesCode', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID'}</t>
         </is>
       </c>
       <c r="S197" t="inlineStr">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Tree_Tags', 'tlu_PlantSpecies'}</t>
+          <t>{'tbl_Tree_Tags', 'tbl_Locations', 'tlu_PlantSpecies'}</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Location_ID', 'tlu_PlantSpecies.SpeciesCode', 'tbl_Locations.Elevation', 'tbl_Tree_Tags.Location_ID', 'tlu_PlantSpecies.CommonName', 'tlu_PlantSpecies.genus', 'tbl_Tree_Tags.SpCode'}</t>
+          <t>{'tbl_Locations.Elevation', 'tlu_PlantSpecies.CommonName', 'tbl_Tree_Tags.Location_ID', 'tbl_Locations.Location_ID', 'tbl_Tree_Tags.SpCode', 'tlu_PlantSpecies.genus', 'tlu_PlantSpecies.SpeciesCode'}</t>
         </is>
       </c>
       <c r="S198" t="inlineStr">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Datum', 'tbl_Locations.Coord_System', 'tbl_Locations.Coord_Units', 'tbl_Locations.Plot_ID', 'tbl_Locations.Eco_Notes'}</t>
+          <t>{'tbl_Locations.Coord_Units', 'tbl_Locations.Coord_System', 'tbl_Locations.Datum', 'tbl_Locations.Eco_Notes', 'tbl_Locations.Plot_ID'}</t>
         </is>
       </c>
       <c r="S199" t="inlineStr">
@@ -16445,7 +16445,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Notes', 'tbl_Locations.Other_Disturbance'}</t>
+          <t>{'tbl_Locations.Other_Disturbance', 'tbl_Locations.Loc_Notes'}</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>{'tbl_Deadwood', 'tbl_Overstory'}</t>
+          <t>{'tbl_Overstory', 'tbl_Deadwood'}</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="T203" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'FIRE.FIRE', 'CRASH.VERSION', 'CRASH.CATEGORY', 'FIRE.VERSION', 'FIRE.CATEGORY'}</t>
+          <t>{'CRASH.VERSION', 'FIRE.VERSION', 'FIRE.CATEGORY', 'FIRE.FIRE', 'CRASH.CATEGORY', 'FIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="U203" t="n">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>{'EMSCARE.OCCNO', 'OCC.OCCNO', 'EMSCARE.CASEID', 'EMSCARE.VEHNO', 'OCC.CATEGORY', 'OCC.CASEID', 'OCC.VERSION', 'EMSCARE.CATEGORY', 'OCC.VEHNO', 'EMSCARE.VERSION', 'EMSCARE.EMSCARE'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'OCC.OCCNO', 'OCC.VERSION', 'EMSCARE.EMSCARE', 'EMSCARE.VERSION', 'EMSCARE.VEHNO', 'EMSCARE.CATEGORY', 'EMSCARE.CASEID', 'EMSCARE.OCCNO', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U206" t="n">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>{'JKWGT.CATEGORY', 'JKWGT.JKWGT5'}</t>
+          <t>{'JKWGT.JKWGT5', 'JKWGT.CATEGORY'}</t>
         </is>
       </c>
       <c r="S209" t="inlineStr">
@@ -17325,12 +17325,12 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.VEHNO', 'VPICDECODE.CASEID', 'GV.CURBWT', 'VPICDECODE.VEHNO', 'GV.CASEID', 'GV.MODEL'}</t>
+          <t>{'GV.CURBWT', 'GV.CASEID', 'VPICDECODE.VEHNO', 'GV.MAKE', 'GV.VEHNO', 'VPICDECODE.CASEID', 'GV.MODEL'}</t>
         </is>
       </c>
       <c r="T211" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>{'GV.PARDRUG', 'GV.TOWED'}</t>
+          <t>{'GV.TOWED', 'GV.PARDRUG'}</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
@@ -17725,17 +17725,17 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.SPEEDLIMIT'}</t>
+          <t>{'GV.SPEEDLIMIT', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.CASEID', 'GV.CASEID', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'GV.CASEID', 'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T216" t="inlineStr">
         <is>
-          <t>{'EDREVENT.VEHNO', 'GV.DVSPEED'}</t>
+          <t>{'GV.DVSPEED', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="U216" t="n">
@@ -17895,7 +17895,7 @@
       </c>
       <c r="T218" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GV.TRAFFUNCT'}</t>
+          <t>{'GV.TRAFFUNCT', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="U218" t="n">
@@ -18125,7 +18125,7 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>{'INTRUSION.INTMAG', 'INTRUSION.INTDIRECT', 'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTCOMP'}</t>
+          <t>{'INTRUSION.INTCOMP', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT', 'INTRUSION.INTMAG', 'INTRUSION.CASEID'}</t>
         </is>
       </c>
       <c r="S221" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>{'INTRUSION.CASEID', 'INTRUSION.VEHNO', 'INTRUSION.INTDIRECT'}</t>
+          <t>{'INTRUSION.INTDIRECT', 'INTRUSION.CASEID', 'INTRUSION.VEHNO'}</t>
         </is>
       </c>
       <c r="S222" t="inlineStr">
@@ -18295,7 +18295,7 @@
       </c>
       <c r="T223" t="inlineStr">
         <is>
-          <t>{'OCCONTACT.CONTACT', 'OCCONTACT.BODYREGION'}</t>
+          <t>{'OCCONTACT.BODYREGION', 'OCCONTACT.CONTACT'}</t>
         </is>
       </c>
       <c r="U223" t="n">
@@ -18455,7 +18455,7 @@
       </c>
       <c r="T225" t="inlineStr">
         <is>
-          <t>{'INJURY.AIS', 'INJURY.AISCODE'}</t>
+          <t>{'INJURY.AISCODE', 'INJURY.AIS'}</t>
         </is>
       </c>
       <c r="U225" t="n">
@@ -18535,7 +18535,7 @@
       </c>
       <c r="T226" t="inlineStr">
         <is>
-          <t>{'OCCONTACT.CONTACT', 'OCCONTACT.CONFIDENCE', 'OCCONTACT.BODYREGION'}</t>
+          <t>{'OCCONTACT.BODYREGION', 'OCCONTACT.CONTACT', 'OCCONTACT.CONFIDENCE'}</t>
         </is>
       </c>
       <c r="U226" t="n">
@@ -18690,12 +18690,12 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'INJURY.CASEID', 'INJURY.AIS', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO'}</t>
+          <t>{'VPICDECODE.VEHNO', 'INJURY.CASEID', 'INJURY.AIS', 'VPICDECODE.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T228" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.CATEGORY', 'INJURY.INJLEVEL', 'GV.VEHNO', 'INJURY.CATEGORY', 'INJURY.VERSION', 'GV.VERSION'}</t>
+          <t>{'INJURY.INJLEVEL', 'GV.MAKE', 'INJURY.CATEGORY', 'GV.VEHNO', 'INJURY.VERSION', 'GV.CATEGORY', 'GV.VERSION'}</t>
         </is>
       </c>
       <c r="U228" t="n">
@@ -18722,60 +18722,60 @@
         <v>39650</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L229" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M229" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="N229" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY'}</t>
         </is>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>{'OCC', 'INJURY', 'GV'}</t>
+          <t>{'GV', 'OCC'}</t>
         </is>
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY.VEHNO', 'INJURY.REGION'}</t>
         </is>
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'INJURY.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.CATEGORY', 'GV.VEHNO', 'INJURY.CATEGORY', 'INJURY.VEHNO', 'OCC.CATEGORY', 'INJURY.REGION', 'OCC.VERSION', 'OCC.VEHNO', 'INJURY.VERSION', 'GV.VERSION'}</t>
+          <t>{'GV.MAKE', 'OCC.VEHNO', 'INJURY.CATEGORY', 'GV.VEHNO', 'INJURY.VERSION', 'OCC.VERSION', 'GV.CATEGORY', 'GV.VERSION', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U229" t="n">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="T232" t="inlineStr">
         <is>
-          <t>{'CRASH.CRASHTIME', 'EMSCARE.EMSCARE', 'EMSCARE.CASEID', 'CRASH.CASEID'}</t>
+          <t>{'EMSCARE.CASEID', 'EMSCARE.EMSCARE', 'CRASH.CRASHTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U232" t="n">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t>{'CRASH.CRASHTIME', 'EMSCARE.EMSCARE', 'EMSCARE.CASEID', 'CRASH.CASEID'}</t>
+          <t>{'EMSCARE.CASEID', 'EMSCARE.EMSCARE', 'CRASH.CRASHTIME', 'CRASH.CASEID'}</t>
         </is>
       </c>
       <c r="U233" t="n">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>{'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE', 'EMSCARE.NOTIFIED', 'EMSCARE.CASEID', 'EMSCARE.SCENEDEP', 'EMSCARE.ARRMEDICAL'}</t>
+          <t>{'EMSCARE.ARRMEDICAL', 'EMSCARE.NOTIFIED', 'EMSCARE.CASEID', 'EMSCARE.SCENEARR', 'EMSCARE.EMSTYPE', 'EMSCARE.SCENEDEP'}</t>
         </is>
       </c>
       <c r="S234" t="inlineStr">
@@ -19245,7 +19245,7 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S235" t="inlineStr">
@@ -19335,7 +19335,7 @@
       </c>
       <c r="T236" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.ModelYear', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="U236" t="n">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -19410,12 +19410,12 @@
       </c>
       <c r="S237" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="T237" t="inlineStr">
         <is>
-          <t>{'GV.MODELYR', 'GV.MAKE', 'GV.MODEL'}</t>
+          <t>{'GV.MODEL', 'GV.MAKE', 'GV.MODELYR'}</t>
         </is>
       </c>
       <c r="U237" t="n">
@@ -19810,12 +19810,12 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.CDCPLANE', 'CDC.CASEID'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.CDCPLANE'}</t>
         </is>
       </c>
       <c r="T242" t="inlineStr">
         <is>
-          <t>{'CDC.PDOF', 'CDC.CDC'}</t>
+          <t>{'CDC.CDC', 'CDC.PDOF'}</t>
         </is>
       </c>
       <c r="U242" t="n">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>{'OCC', 'GLAZING', 'OCCONTACT'}</t>
+          <t>{'OCCONTACT', 'GLAZING', 'OCC'}</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19890,12 +19890,12 @@
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>{'INTERIOR.GLAZINGCONT', 'INTERIOR.CASEID'}</t>
+          <t>{'INTERIOR.CASEID', 'INTERIOR.GLAZINGCONT'}</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
         <is>
-          <t>{'OCCONTACT.CONTACT', 'OCC.CASENUMBER', 'OCCONTACT.VERSION', 'OCCONTACT.CASENUMBER', 'OCC.CATEGORY', 'OCC.VERSION', 'GLAZING.CATEGORY', 'OCC.VEHNO', 'GLAZING.GLAZTYPE', 'GLAZING.CASENUMBER', 'OCCONTACT.VEHNO', 'GLAZING.VEHNO', 'OCCONTACT.CATEGORY', 'GLAZING.VERSION', 'OCCONTACT.BODYREGION'}</t>
+          <t>{'GLAZING.GLAZTYPE', 'OCCONTACT.VEHNO', 'OCCONTACT.BODYREGION', 'GLAZING.CATEGORY', 'OCC.VEHNO', 'OCCONTACT.VERSION', 'GLAZING.CASENUMBER', 'OCC.VERSION', 'GLAZING.VEHNO', 'OCCONTACT.CASENUMBER', 'GLAZING.VERSION', 'OCC.CASENUMBER', 'OCCONTACT.CATEGORY', 'OCC.CATEGORY', 'OCCONTACT.CONTACT'}</t>
         </is>
       </c>
       <c r="U243" t="n">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC'}</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
@@ -19970,7 +19970,7 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1'}</t>
         </is>
       </c>
       <c r="T244" t="inlineStr">
@@ -20125,12 +20125,12 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>{'GLAZING.VEHNO', 'GLAZING.GLAZIMP'}</t>
+          <t>{'GLAZING.GLAZIMP', 'GLAZING.VEHNO'}</t>
         </is>
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>{'GV.VEHNO', 'GLAZING.CASEID', 'GV.VIN', 'GV.CASEID'}</t>
+          <t>{'GLAZING.CASEID', 'GV.VIN', 'GV.CASEID', 'GV.VEHNO'}</t>
         </is>
       </c>
       <c r="T246" t="inlineStr">
@@ -20215,7 +20215,7 @@
       </c>
       <c r="T247" t="inlineStr">
         <is>
-          <t>{'CRASH.VERSION', 'CRASH.CATEGORY', 'CRASH.CASENUMBER', 'ADAPT.VEHNO', 'ADAPT.CASENUMBER', 'ADAPT.ADAPT', 'ADAPT.CATEGORY', 'ADAPT.VERSION'}</t>
+          <t>{'CRASH.VERSION', 'ADAPT.ADAPT', 'ADAPT.VEHNO', 'CRASH.CATEGORY', 'ADAPT.CATEGORY', 'CRASH.CASENUMBER', 'ADAPT.VERSION', 'ADAPT.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U247" t="n">
@@ -20242,22 +20242,22 @@
         <v>39590</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L248" t="n">
         <v>0</v>
@@ -20270,7 +20270,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH'}</t>
         </is>
       </c>
       <c r="P248" t="inlineStr">
@@ -20280,7 +20280,7 @@
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>{'CDC', 'CRASH', 'EDRPOSTCRASH'}</t>
+          <t>{'CDC', 'CRASH'}</t>
         </is>
       </c>
       <c r="R248" t="inlineStr">
@@ -20290,12 +20290,12 @@
       </c>
       <c r="S248" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'EDRPOSTCRASH.PCODE', 'EDRPOSTCRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T248" t="inlineStr">
         <is>
-          <t>{'EDRPOSTCRASH.CATEGORY', 'CDC.CATEGORY', 'CDC.ROLLVERT', 'CRASH.CATEGORY', 'CDC.CDC', 'EDRPOSTCRASH.PTIME'}</t>
+          <t>{'CDC.ROLLVERT', 'CDC.CATEGORY', 'CRASH.CATEGORY', 'CDC.CDC', 'EDRPOSTCRASH.CATEGORY', 'EDRPOSTCRASH.PTIME'}</t>
         </is>
       </c>
       <c r="U248" t="n">
@@ -20450,7 +20450,7 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PCODE'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID'}</t>
         </is>
       </c>
       <c r="T250" t="inlineStr">
@@ -20520,22 +20520,22 @@
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>{'EDREVENT', 'EDRSUMM', 'EVENT'}</t>
+          <t>{'EVENT', 'EDRSUMM', 'EDREVENT'}</t>
         </is>
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.PVALUE', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.VEHNO'}</t>
+          <t>{'EDRPRECRASH.PCODE', 'EDRPRECRASH.VEHNO', 'EDRPRECRASH.CASEID', 'EDRPRECRASH.PVALUE'}</t>
         </is>
       </c>
       <c r="T251" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.EDRSUMMNO', 'EVENT.VERSION', 'EVENT.CASEID', 'EDRSUMM.VERSION', 'EDRSUMM.VEHNO', 'EDRSUMM.CASEID', 'EDREVENT.CASEID', 'EDREVENT.EDRSUMMNO', 'EDREVENT.VEHNO', 'VPICDECODE.VERSION', 'EDREVENT.VERSION'}</t>
+          <t>{'EDREVENT.VEHNO', 'EDRSUMM.VEHNO', 'EDRSUMM.VERSION', 'EDRSUMM.EDRSUMMNO', 'EDREVENT.EDRSUMMNO', 'EVENT.VERSION', 'EDREVENT.VERSION', 'EDRSUMM.CASEID', 'EVENT.CASEID', 'EDREVENT.CASEID', 'VPICDECODE.VERSION'}</t>
         </is>
       </c>
       <c r="U251" t="n">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="T254" t="inlineStr">
         <is>
-          <t>{'OCCONTACT.CONTACT', 'OCCONTACT.BODYREGION'}</t>
+          <t>{'OCCONTACT.BODYREGION', 'OCCONTACT.CONTACT'}</t>
         </is>
       </c>
       <c r="U254" t="n">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>{'OCC.BELTUSE', 'OCC.BELTAVAIL'}</t>
+          <t>{'OCC.BELTAVAIL', 'OCC.BELTUSE'}</t>
         </is>
       </c>
       <c r="S260" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
+          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
         </is>
       </c>
       <c r="S261" t="inlineStr">
@@ -21405,7 +21405,7 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>{'OCC.MORTALITY', 'OCC.BELTUSE'}</t>
+          <t>{'OCC.BELTUSE', 'OCC.MORTALITY'}</t>
         </is>
       </c>
       <c r="S262" t="inlineStr">
@@ -21490,7 +21490,7 @@
       </c>
       <c r="S263" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.PDOF', 'CDC.CASEID'}</t>
+          <t>{'CDC.CASEID', 'CDC.VEHNO', 'CDC.PDOF'}</t>
         </is>
       </c>
       <c r="T263" t="inlineStr">
@@ -21570,7 +21570,7 @@
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>{'CDC.HEADINGANG', 'CDC.CASEID'}</t>
+          <t>{'CDC.CASEID', 'CDC.HEADINGANG'}</t>
         </is>
       </c>
       <c r="T264" t="inlineStr">
@@ -21602,35 +21602,35 @@
         <v>39580</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M265" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N265" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -21640,12 +21640,12 @@
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>{'CDC'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.CMAX'}</t>
         </is>
       </c>
       <c r="S265" t="inlineStr">
@@ -21655,7 +21655,7 @@
       </c>
       <c r="T265" t="inlineStr">
         <is>
-          <t>{'CDC.CMAX', 'CDC.CMAXHEIGHT', 'CDC.CDC'}</t>
+          <t>{'CDC.CDC', 'CDC.CMAXHEIGHT'}</t>
         </is>
       </c>
       <c r="U265" t="n">
@@ -21725,7 +21725,7 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.DAMAPILLAR'}</t>
+          <t>{'CDC.DAMAPILLAR', 'CDC.VEHNO'}</t>
         </is>
       </c>
       <c r="S266" t="inlineStr">
@@ -21955,7 +21955,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC'}</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
@@ -21970,7 +21970,7 @@
       </c>
       <c r="S269" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'CDC.DVBARRIER'}</t>
         </is>
       </c>
       <c r="T269" t="inlineStr">
@@ -22050,12 +22050,12 @@
       </c>
       <c r="S270" t="inlineStr">
         <is>
-          <t>{'CDC.VEHNO', 'CDC.C3', 'CDC.C6', 'CDC.CMAX', 'CDC.C1', 'CDC.C5', 'CDC.C4', 'CDC.C2', 'CDC.CASEID'}</t>
+          <t>{'CDC.C1', 'CDC.C2', 'CDC.CASEID', 'CDC.C3', 'CDC.CMAX', 'CDC.VEHNO', 'CDC.C5', 'CDC.C6', 'CDC.C4'}</t>
         </is>
       </c>
       <c r="T270" t="inlineStr">
         <is>
-          <t>{'VEHMEAS.SIDEGLAZ', 'VEHMEAS.VERTDOOR', 'VEHMEAS.PBED', 'VEHMEAS.WBRIGHT', 'VEHMEAS.LROH', 'VEHMEAS.FRNTPILL', 'VEHMEAS.VEHNO', 'VEHMEAS.FRNTBUMP', 'VEHMEAS.FRNTWIND', 'VEHMEAS.VERTGLAZ', 'VEHMEAS.SIDEROOF', 'VEHMEAS.BACKTRUNK', 'VEHMEAS.RFBC', 'VEHMEAS.RFOH', 'VEHMEAS.BACKLIGHT', 'VEHMEAS.WBLEFT', 'VEHMEAS.CASEID', 'VEHMEAS.LFBC', 'VEHMEAS.LFOH', 'VEHMEAS.RROH', 'VEHMEAS.VERTROOF', 'VEHMEAS.LRBC', 'VEHMEAS.BACKPICKUP', 'VEHMEAS.FRNTHOOD', 'VEHMEAS.SIDEDOOR', 'VEHMEAS.RRBC', 'VEHMEAS.BACKBPILL', 'VEHMEAS.REARBUMP'}</t>
+          <t>{'VEHMEAS.BACKLIGHT', 'VEHMEAS.LFOH', 'VEHMEAS.VEHNO', 'VEHMEAS.SIDEGLAZ', 'VEHMEAS.RFBC', 'VEHMEAS.BACKBPILL', 'VEHMEAS.FRNTWIND', 'VEHMEAS.RFOH', 'VEHMEAS.SIDEROOF', 'VEHMEAS.BACKTRUNK', 'VEHMEAS.SIDEDOOR', 'VEHMEAS.RRBC', 'VEHMEAS.WBLEFT', 'VEHMEAS.BACKPICKUP', 'VEHMEAS.CASEID', 'VEHMEAS.FRNTHOOD', 'VEHMEAS.REARBUMP', 'VEHMEAS.FRNTPILL', 'VEHMEAS.VERTROOF', 'VEHMEAS.LRBC', 'VEHMEAS.LROH', 'VEHMEAS.VERTDOOR', 'VEHMEAS.RROH', 'VEHMEAS.FRNTBUMP', 'VEHMEAS.WBRIGHT', 'VEHMEAS.VERTGLAZ', 'VEHMEAS.PBED', 'VEHMEAS.LFBC'}</t>
         </is>
       </c>
       <c r="U270" t="n">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>{'EDRSUMM', 'EVENT'}</t>
+          <t>{'EVENT', 'EDRSUMM'}</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22130,12 +22130,12 @@
       </c>
       <c r="S271" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDREVENT.EDRSUMMNO', 'EDREVENT.VEHNO'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.EDRSUMMNO'}</t>
         </is>
       </c>
       <c r="T271" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.EDRSUMMNO', 'EVENT.CASEID', 'EDRSUMM.NUMEVENTS', 'EDRSUMM.VEHNO', 'EDRSUMM.CASEID'}</t>
+          <t>{'EDRSUMM.VEHNO', 'EDRSUMM.EDRSUMMNO', 'EDRSUMM.NUMEVENTS', 'EDRSUMM.CASEID', 'EVENT.CASEID'}</t>
         </is>
       </c>
       <c r="U271" t="n">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH', 'EDREVENT'}</t>
+          <t>{'EDREVENT', 'EDRPRECRASH'}</t>
         </is>
       </c>
       <c r="P272" t="inlineStr">
@@ -22200,22 +22200,22 @@
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>{'CRASH', 'EDRSUMM', 'EVENT'}</t>
+          <t>{'EVENT', 'EDRSUMM', 'CRASH'}</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>{'EDRPRECRASH.EDREVENTNO', 'EDREVENT.EDREVENTNO'}</t>
+          <t>{'EDREVENT.EDREVENTNO', 'EDRPRECRASH.EDREVENTNO'}</t>
         </is>
       </c>
       <c r="S272" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDRPRECRASH.CASEID'}</t>
+          <t>{'EDRPRECRASH.CASEID', 'EDREVENT.CASEID'}</t>
         </is>
       </c>
       <c r="T272" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.VERSION', 'CRASH.CATEGORY', 'EDRPRECRASH.VERSION', 'EDRSUMM.VEHNO', 'EDREVENT.CASENUMBER', 'EDRSUMM.CATEGORY', 'EDREVENT.EDRSUMMNO', 'EDREVENT.CATEGORY', 'EDRPRECRASH.CATEGORY', 'EDRPRECRASH.CASENUMBER', 'EVENT.CATEGORY', 'EDRSUMM.EDRSUMMNO', 'EVENT.VERSION', 'CRASH.VERSION', 'EDRPRECRASH.VEHNO', 'EVENT.CASENUMBER', 'EDRPRECRASH.PTIME', 'CRASH.CASENUMBER', 'EDREVENT.VEHNO', 'EDRSUMM.CASENUMBER', 'EDREVENT.VERSION', 'EVENT.EVENTNO', 'EDRPRECRASH.EDRSUMMNO'}</t>
+          <t>{'CRASH.VERSION', 'EDREVENT.VEHNO', 'EDRSUMM.CASENUMBER', 'EDRSUMM.VEHNO', 'EVENT.CATEGORY', 'EDRSUMM.CATEGORY', 'CRASH.CATEGORY', 'EVENT.VERSION', 'EVENT.CASENUMBER', 'EDRPRECRASH.VERSION', 'EDRPRECRASH.PTIME', 'EDRPRECRASH.CATEGORY', 'EDREVENT.CASENUMBER', 'EVENT.EVENTNO', 'EDRPRECRASH.CASENUMBER', 'EDREVENT.CATEGORY', 'EDRPRECRASH.EDRSUMMNO', 'EDRSUMM.VERSION', 'EDRSUMM.EDRSUMMNO', 'EDREVENT.VERSION', 'EDREVENT.EDRSUMMNO', 'EDRPRECRASH.VEHNO', 'CRASH.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U272" t="n">
@@ -22285,17 +22285,17 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.Model', 'VPICDECODE.ModelYear'}</t>
+          <t>{'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S273" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'VPICDECODE.CASEID', 'EDREVENT.IGCYCRASH'}</t>
+          <t>{'VPICDECODE.CASEID', 'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="T273" t="inlineStr">
         <is>
-          <t>{'EDRSUMM.VERSION', 'EDRSUMM.IGCYCDOWN', 'EDRSUMM.VEHNO', 'EDRSUMM.CATEGORY', 'VPICDECODE.VERSION', 'VPICDECODE.CATEGORY'}</t>
+          <t>{'EDRSUMM.VERSION', 'EDRSUMM.VEHNO', 'EDRSUMM.CATEGORY', 'EDRSUMM.IGCYCDOWN', 'VPICDECODE.CATEGORY', 'VPICDECODE.VERSION'}</t>
         </is>
       </c>
       <c r="U273" t="n">
@@ -22370,7 +22370,7 @@
       </c>
       <c r="S274" t="inlineStr">
         <is>
-          <t>{'EDREVENT.CASEID', 'EDREVENT.VEHNO', 'EDREVENT.IGCYCRASH'}</t>
+          <t>{'EDREVENT.CASEID', 'EDREVENT.IGCYCRASH', 'EDREVENT.VEHNO'}</t>
         </is>
       </c>
       <c r="T274" t="inlineStr">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>{'INJURY.OCCNO', 'INJURY.VEHNO', 'INJURY.INJNO', 'INJURY.CASEID'}</t>
+          <t>{'INJURY.CASEID', 'INJURY.OCCNO', 'INJURY.VEHNO', 'INJURY.INJNO'}</t>
         </is>
       </c>
       <c r="S275" t="inlineStr">
@@ -22455,7 +22455,7 @@
       </c>
       <c r="T275" t="inlineStr">
         <is>
-          <t>{'OCC.OCCNO', 'INJURY.CATEGORY', 'OCC.CATEGORY', 'OCC.CASEID', 'OCC.VERSION', 'OCC.VEHNO', 'INJURY.VERSION'}</t>
+          <t>{'OCC.CASEID', 'OCC.VEHNO', 'INJURY.CATEGORY', 'INJURY.VERSION', 'OCC.OCCNO', 'OCC.VERSION', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U275" t="n">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>{'FUEL', 'FIRE'}</t>
+          <t>{'FIRE', 'FUEL'}</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
@@ -22525,7 +22525,7 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>{'FIRE.VEHNO', 'FUEL.FUELTYPE', 'FIRE.CASEID', 'FUEL.CASEID', 'FUEL.VEHNO'}</t>
+          <t>{'FIRE.CASEID', 'FUEL.CASEID', 'FUEL.FUELTYPE', 'FIRE.VEHNO', 'FUEL.VEHNO'}</t>
         </is>
       </c>
       <c r="S276" t="inlineStr">
@@ -22535,7 +22535,7 @@
       </c>
       <c r="T276" t="inlineStr">
         <is>
-          <t>{'FIRE.FIRE', 'FUEL.CATEGORY', 'FIRE.VERSION', 'FUEL.VERSION', 'FIRE.CATEGORY'}</t>
+          <t>{'FIRE.VERSION', 'FIRE.CATEGORY', 'FUEL.CATEGORY', 'FUEL.VERSION', 'FIRE.FIRE'}</t>
         </is>
       </c>
       <c r="U276" t="n">
@@ -22605,17 +22605,17 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>{'OCC.OCCNO', 'EJECT.OCCNO', 'EJECT.VEHNO', 'OCC.SEX', 'OCC.VEHNO'}</t>
+          <t>{'OCC.VEHNO', 'OCC.OCCNO', 'EJECT.OCCNO', 'OCC.SEX', 'EJECT.VEHNO'}</t>
         </is>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>{'OCC.CASEID', 'EJECT.CASEID'}</t>
+          <t>{'EJECT.CASEID', 'OCC.CASEID'}</t>
         </is>
       </c>
       <c r="T277" t="inlineStr">
         <is>
-          <t>{'EJECT.CATEGORY', 'EJECT.VERSION', 'OCC.CATEGORY', 'OCC.VERSION'}</t>
+          <t>{'OCC.VERSION', 'EJECT.VERSION', 'EJECT.CATEGORY', 'OCC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U277" t="n">
@@ -22680,7 +22680,7 @@
       </c>
       <c r="Q278" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R278" t="inlineStr">
@@ -22695,7 +22695,7 @@
       </c>
       <c r="T278" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.CATEGORY', 'CRASH.VERSION', 'CRASH.CATEGORY', 'GV.VERSION'}</t>
+          <t>{'CRASH.VERSION', 'GV.MAKE', 'CRASH.CATEGORY', 'GV.CATEGORY', 'GV.VERSION'}</t>
         </is>
       </c>
       <c r="U278" t="n">
@@ -22760,7 +22760,7 @@
       </c>
       <c r="Q279" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R279" t="inlineStr">
@@ -22770,12 +22770,12 @@
       </c>
       <c r="S279" t="inlineStr">
         <is>
-          <t>{'AVOID.CASEID', 'AVOID.AVAIL'}</t>
+          <t>{'AVOID.AVAIL', 'AVOID.CASEID'}</t>
         </is>
       </c>
       <c r="T279" t="inlineStr">
         <is>
-          <t>{'GV.CATEGORY', 'CRASH.VERSION', 'AVOID.VERSION', 'AVOID.CASENUMBER', 'CRASH.CATEGORY', 'GV.VEHNO', 'GV.CASENUMBER', 'CRASH.CASENUMBER', 'AVOID.VEHNO', 'AVOID.CATEGORY', 'AVOID.ACTIVATE', 'GV.VERSION'}</t>
+          <t>{'CRASH.VERSION', 'AVOID.ACTIVATE', 'AVOID.VERSION', 'AVOID.CATEGORY', 'GV.CASENUMBER', 'GV.VEHNO', 'AVOID.VEHNO', 'CRASH.CATEGORY', 'GV.CATEGORY', 'CRASH.CASENUMBER', 'GV.VERSION', 'AVOID.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U279" t="n">
@@ -22802,35 +22802,35 @@
         <v>39567</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N280" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID'}</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
@@ -22840,22 +22840,22 @@
       </c>
       <c r="Q280" t="inlineStr">
         <is>
-          <t>{'AVOID'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.EQUIP'}</t>
         </is>
       </c>
       <c r="S280" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'AVOID.AVAIL'}</t>
         </is>
       </c>
       <c r="T280" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U280" t="n">
@@ -22930,12 +22930,12 @@
       </c>
       <c r="S281" t="inlineStr">
         <is>
-          <t>{'AVOID.EQUIP', 'AVOID.VEHNO', 'AVOID.CASEID', 'AVOID.AVAIL'}</t>
+          <t>{'AVOID.AVAIL', 'AVOID.CASEID', 'AVOID.EQUIP', 'AVOID.VEHNO'}</t>
         </is>
       </c>
       <c r="T281" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.RearAutomaticEmergencyBraking', 'VPICDECODE.RearCrossTrafficAlert', 'VPICDECODE.ForwardCollisionWarning', 'VPICDECODE.LaneKeepingAssistance', 'VPICDECODE.PedestrianAutoEmergencyBraking', 'VPICDECODE.DynamicBrakeSupport', 'VPICDECODE.CrashImminentBraking', 'VPICDECODE.BlindSpotIntervention', 'VPICDECODE.LaneCenteringAssistance', 'VPICDECODE.AdaptiveCruiseControl', 'VPICDECODE.LaneDepartureWarning', 'VPICDECODE.ParkAssist', 'VPICDECODE.BlindSpotWarning'}</t>
+          <t>{'VPICDECODE.PedestrianAutoEmergencyBraking', 'VPICDECODE.ParkAssist', 'VPICDECODE.LaneDepartureWarning', 'VPICDECODE.LaneKeepingAssistance', 'VPICDECODE.AdaptiveCruiseControl', 'VPICDECODE.RearAutomaticEmergencyBraking', 'VPICDECODE.LaneCenteringAssistance', 'VPICDECODE.DynamicBrakeSupport', 'VPICDECODE.BlindSpotWarning', 'VPICDECODE.BlindSpotIntervention', 'VPICDECODE.RearCrossTrafficAlert', 'VPICDECODE.CrashImminentBraking', 'VPICDECODE.ForwardCollisionWarning'}</t>
         </is>
       </c>
       <c r="U281" t="n">
@@ -23165,7 +23165,7 @@
       </c>
       <c r="R284" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GAWRFRONT', 'TIREPLAC.GVWR', 'TIREPLAC.GAWRREAR'}</t>
+          <t>{'TIREPLAC.GAWRFRONT', 'TIREPLAC.GAWRREAR', 'TIREPLAC.GVWR'}</t>
         </is>
       </c>
       <c r="S284" t="inlineStr">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="R285" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.GVWR', 'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECRRPRESS1'}</t>
+          <t>{'TIREPLAC.GVWR', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="S285" t="inlineStr">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="R286" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECFRONT1'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.RECFRPRESS1'}</t>
         </is>
       </c>
       <c r="S286" t="inlineStr">
@@ -23405,7 +23405,7 @@
       </c>
       <c r="R287" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIREPLAC.RECREAR1', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.Model'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.Model', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S287" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="T287" t="inlineStr">
         <is>
-          <t>{'TIRE.VERSION', 'TIREPLAC.CATEGORY', 'TIREPLAC.VERSION', 'TIRE.VEHNO', 'VPICDECODE.ModelYear', 'VPICDECODE.VERSION', 'VPICDECODE.CATEGORY', 'TIRE.CATEGORY'}</t>
+          <t>{'TIRE.VERSION', 'TIREPLAC.CATEGORY', 'TIREPLAC.VERSION', 'TIRE.VEHNO', 'VPICDECODE.CATEGORY', 'TIRE.CATEGORY', 'VPICDECODE.ModelYear', 'VPICDECODE.VERSION'}</t>
         </is>
       </c>
       <c r="U287" t="n">
@@ -23485,17 +23485,17 @@
       </c>
       <c r="R288" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIREPLAC.RECFRPRESS1', 'TIREPLAC.RECREAR1', 'TIREPLAC.RECFRONT1', 'VPICDECODE.ModelYear', 'TIREPLAC.RECRRPRESS1', 'VPICDECODE.Model'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIREPLAC.RECRRPRESS1', 'TIREPLAC.RECFRPRESS1', 'VPICDECODE.Model', 'TIREPLAC.RECREAR1', 'VPICDECODE.Make', 'VPICDECODE.ModelYear'}</t>
         </is>
       </c>
       <c r="S288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.VEHNO', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO'}</t>
         </is>
       </c>
       <c r="T288" t="inlineStr">
         <is>
-          <t>{'TIREPLAC.CASENUMBER', 'TIRE.CASENUMBER', 'VPICDECODE.CASENUMBER'}</t>
+          <t>{'VPICDECODE.CASENUMBER', 'TIRE.CASENUMBER', 'TIREPLAC.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U288" t="n">
@@ -23650,12 +23650,12 @@
       </c>
       <c r="S290" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIRE.CASEID', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.Model'}</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T290" t="inlineStr">
         <is>
-          <t>{'TIRE.VERSION', 'GV.MODEL', 'GV.MAKE', 'GV.CATEGORY', 'GV.VEHNO', 'TIRE.CATEGORY', 'GV.VERSION'}</t>
+          <t>{'GV.MAKE', 'TIRE.VERSION', 'GV.VEHNO', 'GV.CATEGORY', 'GV.VERSION', 'GV.MODEL', 'TIRE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U290" t="n">
@@ -23790,7 +23790,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>{'TIRE', 'TIREDAMAGE'}</t>
+          <t>{'TIREDAMAGE', 'TIRE'}</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
@@ -23805,12 +23805,12 @@
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>{'TIREDAMAGE.VEHNO', 'TIRE.TIREMODEL', 'TIREDAMAGE.DAMAGE', 'TIRE.VEHNO'}</t>
+          <t>{'TIRE.TIREMODEL', 'TIREDAMAGE.DAMAGE', 'TIREDAMAGE.VEHNO', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S292" t="inlineStr">
         <is>
-          <t>{'TIRE.CASEID', 'TIREDAMAGE.CASEID'}</t>
+          <t>{'TIREDAMAGE.CASEID', 'TIRE.CASEID'}</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>{'TIRE.TIRELOC', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.VEHNO', 'TIREPLAC.CASEID'}</t>
         </is>
       </c>
       <c r="S293" t="inlineStr">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>{'TIRE.VERSION', 'TIREPLAC.VERSION', 'TIREPLAC.CATEGORY', 'TIRE.CATEGORY'}</t>
+          <t>{'TIRE.VERSION', 'TIREPLAC.VERSION', 'TIRE.CATEGORY', 'TIREPLAC.CATEGORY'}</t>
         </is>
       </c>
       <c r="U293" t="n">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>{'TIREPLAC', 'VPICDECODE', 'TIRE'}</t>
+          <t>{'TIREPLAC', 'TIRE', 'VPICDECODE'}</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
@@ -23965,7 +23965,7 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'TIRE.TIRELOC', 'TIRE.TIRESIZE', 'TIRE.CASEID', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'TIRE.VEHNO', 'TIREPLAC.RECFRONT1', 'VPICDECODE.VEHNO', 'TIREPLAC.VEHNO', 'VPICDECODE.Model'}</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.CASEID', 'VPICDECODE.VEHNO', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'TIRE.VEHNO', 'TIREPLAC.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="S294" t="inlineStr">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="T294" t="inlineStr">
         <is>
-          <t>{'TIRE.VERSION', 'GV.CASEID', 'GV.CATEGORY', 'TIREPLAC.CATEGORY', 'GV.VEHNO', 'TIREPLAC.VERSION', 'GV.VERSION', 'VPICDECODE.VERSION', 'VPICDECODE.CATEGORY', 'TIRE.CATEGORY'}</t>
+          <t>{'GV.CASEID', 'TIRE.VERSION', 'GV.VEHNO', 'TIREPLAC.CATEGORY', 'TIREPLAC.VERSION', 'GV.CATEGORY', 'GV.VERSION', 'VPICDECODE.CATEGORY', 'TIRE.CATEGORY', 'VPICDECODE.VERSION'}</t>
         </is>
       </c>
       <c r="U294" t="n">
@@ -24002,60 +24002,60 @@
         <v>39727</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="N295" t="n">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC', 'TIRE'}</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'VPICDECODE'}</t>
         </is>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
-          <t>{'TIREPLAC', 'TIRE', 'GV'}</t>
+          <t>{'GV'}</t>
         </is>
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIREPLAC.RECFRONT1', 'TIRE.TIRELOC', 'TIREPLAC.VEHNO', 'TIRE.TIRESIZE', 'TIRE.VEHNO'}</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'TIRE.CASEID', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'TIREPLAC.CASEID', 'VPICDECODE.Make'}</t>
         </is>
       </c>
       <c r="T295" t="inlineStr">
         <is>
-          <t>{'TIRE.VERSION', 'GV.MAKE', 'GV.CATEGORY', 'TIRE.TIRESIZE', 'TIRE.TIRELOC', 'TIREPLAC.CATEGORY', 'GV.VEHNO', 'TIREPLAC.VERSION', 'GV.VERSION', 'TIRE.VEHNO', 'TIREPLAC.RECFRONT1', 'TIREPLAC.VEHNO', 'TIRE.CATEGORY'}</t>
+          <t>{'GV.MAKE', 'TIRE.VERSION', 'GV.VEHNO', 'TIREPLAC.CATEGORY', 'TIREPLAC.VERSION', 'GV.CATEGORY', 'GV.VERSION', 'TIRE.CATEGORY'}</t>
         </is>
       </c>
       <c r="U295" t="n">
@@ -24210,12 +24210,12 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.OCCNO', 'CHILDSEAT.CASEID', 'DISTRACT.CASEID'}</t>
+          <t>{'DISTRACT.CASEID', 'CHILDSEAT.OCCNO', 'CHILDSEAT.CASEID'}</t>
         </is>
       </c>
       <c r="T297" t="inlineStr">
         <is>
-          <t>{'SEAT.CASENUMBER', 'CRASH.CASENUMBER', 'CHILDSEAT.HOWUSED', 'DISTRACT.CASENUMBER', 'CHILDSEAT.CASENUMBER'}</t>
+          <t>{'CHILDSEAT.CASENUMBER', 'DISTRACT.CASENUMBER', 'CRASH.CASENUMBER', 'SEAT.CASENUMBER', 'CHILDSEAT.HOWUSED'}</t>
         </is>
       </c>
       <c r="U297" t="n">
@@ -24280,22 +24280,22 @@
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>{'SEAT', 'GV'}</t>
+          <t>{'GV', 'SEAT'}</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.VEHNO', 'CHILDSEAT.CASEID'}</t>
+          <t>{'CHILDSEAT.CASEID', 'CHILDSEAT.VEHNO'}</t>
         </is>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T298" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'SEAT.VEHNO', 'GV.VEHNO', 'SEAT.CASEID', 'GV.CASEID', 'GV.MODEL'}</t>
+          <t>{'GV.CASEID', 'GV.MAKE', 'GV.MODEL', 'GV.VEHNO', 'SEAT.VEHNO', 'SEAT.CASEID'}</t>
         </is>
       </c>
       <c r="U298" t="n">
@@ -24360,22 +24360,22 @@
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>{'SEAT', 'GV'}</t>
+          <t>{'GV', 'SEAT'}</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>{'CHILDSEAT.VEHNO', 'CHILDSEAT.CASEID', 'DISTRACT.CASEID', 'DISTRACT.VEHNO'}</t>
+          <t>{'DISTRACT.CASEID', 'CHILDSEAT.VEHNO', 'DISTRACT.VEHNO', 'CHILDSEAT.CASEID'}</t>
         </is>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.CASEID', 'VPICDECODE.VEHNO', 'DISTRACT.DISTRACTN', 'VPICDECODE.Model'}</t>
+          <t>{'VPICDECODE.VEHNO', 'VPICDECODE.CASEID', 'VPICDECODE.Model', 'VPICDECODE.Make', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>{'SEAT.VEHNO', 'GV.CATEGORY', 'GV.MAKE', 'DISTRACT.CATEGORY', 'GV.DISTRACT', 'GV.VEHNO', 'CHILDSEAT.VERSION', 'SEAT.CASEID', 'SEAT.VERSION', 'GV.VERSION', 'DISTRACT.VERSION', 'SEAT.CATEGORY', 'CHILDSEAT.CATEGORY', 'GV.CASEID', 'GV.MODEL'}</t>
+          <t>{'CHILDSEAT.CATEGORY', 'GV.CASEID', 'SEAT.VERSION', 'GV.DISTRACT', 'GV.MAKE', 'DISTRACT.VERSION', 'GV.MODEL', 'GV.VEHNO', 'CHILDSEAT.VERSION', 'SEAT.VEHNO', 'GV.CATEGORY', 'GV.VERSION', 'DISTRACT.CATEGORY', 'SEAT.CASEID', 'SEAT.CATEGORY'}</t>
         </is>
       </c>
       <c r="U299" t="n">
@@ -24445,17 +24445,17 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>{'DISTRACT.DISTRACTN', 'DISTRACT.CASEID', 'DISTRACT.VEHNO'}</t>
+          <t>{'DISTRACT.CASEID', 'DISTRACT.VEHNO', 'DISTRACT.DISTRACTN'}</t>
         </is>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO'}</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.CATEGORY', 'DISTRACT.CATEGORY', 'GV.DISTRACT', 'GV.VEHNO', 'GV.VIN', 'GV.VERSION', 'DISTRACT.VERSION', 'GV.CASEID', 'GV.MODEL'}</t>
+          <t>{'GV.VIN', 'GV.CASEID', 'GV.DISTRACT', 'GV.MAKE', 'DISTRACT.VERSION', 'GV.VEHNO', 'GV.CATEGORY', 'GV.VERSION', 'DISTRACT.CATEGORY', 'GV.MODEL'}</t>
         </is>
       </c>
       <c r="U300" t="n">
@@ -24520,7 +24520,7 @@
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>{'CRASH', 'GV'}</t>
+          <t>{'GV', 'CRASH'}</t>
         </is>
       </c>
       <c r="R301" t="inlineStr">
@@ -24530,12 +24530,12 @@
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>{'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'FIRE.CASEID', 'VPICDECODE.CASEID'}</t>
+          <t>{'VPICDECODE.CASEID', 'VPICDECODE.Make', 'VPICDECODE.VEHNO', 'FIRE.CASEID'}</t>
         </is>
       </c>
       <c r="T301" t="inlineStr">
         <is>
-          <t>{'GV.MAKE', 'GV.CATEGORY', 'CRASH.VERSION', 'CRASH.CATEGORY', 'GV.VEHNO', 'GV.CASENUMBER', 'FIRE.VERSION', 'CRASH.CASENUMBER', 'FIRE.CASENUMBER', 'FIRE.CATEGORY', 'GV.VERSION'}</t>
+          <t>{'CRASH.VERSION', 'FIRE.VERSION', 'GV.MAKE', 'FIRE.CATEGORY', 'GV.CASENUMBER', 'GV.VEHNO', 'CRASH.CATEGORY', 'GV.CATEGORY', 'CRASH.CASENUMBER', 'GV.VERSION', 'FIRE.CASENUMBER'}</t>
         </is>
       </c>
       <c r="U301" t="n">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.LEVEL', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.SUBGROUP_NAME'}</t>
+          <t>{'Accountability_Levels.ENTITY_NAME', 'Accountability_Levels.INDICATOR', 'Accountability_Levels.INSTITUTION_ID', 'Accountability_Levels.SUBGROUP_NAME', 'Accountability_Levels.LEVEL'}</t>
         </is>
       </c>
       <c r="S302" t="inlineStr">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="R303" t="inlineStr">
         <is>
-          <t>{'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME', 'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.YEAR'}</t>
+          <t>{'Annual_EM_ELA.PCT_NOT_TESTED', 'Annual_EM_ELA.SUBGROUP_NAME', 'Annual_EM_ELA.YEAR', 'Annual_EM_ELA.ENTITY_NAME', 'Annual_EM_ELA.ASSESSMENT_NAME'}</t>
         </is>
       </c>
       <c r="S303" t="inlineStr">
@@ -24845,7 +24845,7 @@
       </c>
       <c r="R305" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.YEAR'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.PUPIL_COUNT_TOT', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="S305" t="inlineStr">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.SUBGROUP_NAME', 'Annual_EM_MATH.MEAN_SCORE', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'Annual_EM_MATH.YEAR', 'Expenditures_per_Pupil.YEAR'}</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Annual_EM_MATH.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'Annual_EM_MATH.ASSESSMENT_NAME', 'Annual_EM_MATH.YEAR', 'Annual_EM_MATH.ENTITY_CD', 'Expenditures_per_Pupil.YEAR', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Annual_EM_MATH.MEAN_SCORE', 'Annual_EM_MATH.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S306" t="inlineStr">
@@ -24935,7 +24935,7 @@
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>{'Annual_EM_MATH.TOTAL_COUNT', 'Annual_EM_MATH.INSTITUTION_ID', 'Expenditures_per_Pupil.INSTITUTION_ID'}</t>
+          <t>{'Annual_EM_MATH.TOTAL_COUNT', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Annual_EM_MATH.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U306" t="n">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate', 'ACC_HS_Graduation_Rate'}</t>
+          <t>{'ACC_HS_Graduation_Rate', 'ACC_HS_Participation_Rate'}</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Participation_Rate.ENTITY_NAME'}</t>
+          <t>{'ACC_HS_Graduation_Rate.YEAR', 'ACC_HS_Graduation_Rate.GRAD_RATE', 'ACC_HS_Participation_Rate.SUBGROUP_NAME', 'ACC_HS_Graduation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_CD', 'ACC_HS_Graduation_Rate.SUBGROUP_NAME', 'ACC_HS_Participation_Rate.RATE', 'ACC_HS_Participation_Rate.INSTITUTION_ID', 'ACC_HS_Graduation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.ENTITY_NAME', 'ACC_HS_Participation_Rate.YEAR', 'ACC_HS_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="S307" t="inlineStr">
@@ -25085,7 +25085,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S308" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>{'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.ENTITY_NAME', 'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3'}</t>
+          <t>{'Annual_Regents_Exams.PER_LEVEL2', 'Annual_Regents_Exams.SUBGROUP_NAME', 'Annual_Regents_Exams.SUBJECT', 'Annual_Regents_Exams.PER_LEVEL4', 'Annual_Regents_Exams.YEAR', 'Annual_Regents_Exams.PER_LEVEL5', 'Annual_Regents_Exams.PER_LEVEL3', 'Annual_Regents_Exams.PER_LEVEL1', 'Annual_Regents_Exams.TESTED', 'Annual_Regents_Exams.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S309" t="inlineStr">
@@ -25245,12 +25245,12 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T310" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.MADE_PROGRESS', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S312" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="T312" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}</t>
+          <t>{'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.CORE_INDEX'}</t>
         </is>
       </c>
       <c r="U312" t="n">
@@ -25490,7 +25490,7 @@
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T313" t="inlineStr">
@@ -25570,7 +25570,7 @@
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T314" t="inlineStr">
@@ -25645,7 +25645,7 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S315" t="inlineStr">
@@ -25725,12 +25725,12 @@
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_CD'}</t>
+          <t>{'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_EM_ELP.ELL_COUNT', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T316" t="inlineStr">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S317" t="inlineStr">
@@ -25885,12 +25885,12 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART'}</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T318" t="inlineStr">
@@ -26045,17 +26045,17 @@
       </c>
       <c r="R320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.LEVEL', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_ELP.ENTITY_NAME'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.ENTITY_CD', 'ACC_EM_NYSESLAT_for_Participation.ENTITY_NAME', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_CD', 'ACC_EM_ELP.LEVEL', 'ACC_EM_NYSESLAT_for_Participation.NYSESLAT_PART', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T320" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.YEAR', 'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.INSTITUTION_ID'}</t>
+          <t>{'ACC_EM_NYSESLAT_for_Participation.INSTITUTION_ID', 'ACC_EM_ELP.INSTITUTION_ID', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_NYSESLAT_for_Participation.YEAR', 'ACC_EM_ELP.YEAR', 'ACC_EM_NYSESLAT_for_Participation.SUBJECT'}</t>
         </is>
       </c>
       <c r="U320" t="n">
@@ -26125,7 +26125,7 @@
       </c>
       <c r="R321" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBGROUP_NAME', 'ACC_EM_Participation_Rate.YEAR', 'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.COHORT', 'ACC_EM_Participation_Rate.RATE', 'ACC_EM_Participation_Rate.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S321" t="inlineStr">
@@ -26210,7 +26210,7 @@
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T322" t="inlineStr">
@@ -26290,12 +26290,12 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Participation_Rate.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T323" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Participation_Rate.ENTITY_NAME', 'ACC_EM_Participation_Rate.SUBJECT'}</t>
+          <t>{'ACC_EM_Participation_Rate.SUBJECT', 'ACC_EM_Participation_Rate.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U323" t="n">
@@ -26355,7 +26355,7 @@
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism', 'Institution_Grouping'}</t>
+          <t>{'Institution_Grouping', 'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
@@ -26370,12 +26370,12 @@
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBJECT', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'Institution_Grouping.GROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBJECT', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.SUBJECT', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBJECT'}</t>
         </is>
       </c>
       <c r="U324" t="n">
@@ -26402,35 +26402,35 @@
         <v>15310</v>
       </c>
       <c r="F325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P325" t="inlineStr">
@@ -26440,12 +26440,12 @@
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S325" t="inlineStr">
@@ -26455,7 +26455,7 @@
       </c>
       <c r="T325" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U325" t="n">
@@ -26525,12 +26525,12 @@
       </c>
       <c r="R326" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD'}</t>
+          <t>{'ACC_EM_Chronic_Absenteeism.ENTITY_NAME', 'ACC_EM_Chronic_Absenteeism.ENTITY_CD', 'ACC_EM_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_EM_Chronic_Absenteeism.ENROLLMENT', 'ACC_EM_Chronic_Absenteeism.YEAR', 'ACC_EM_Chronic_Absenteeism.ABSENT_RATE'}</t>
         </is>
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T326" t="inlineStr">
@@ -26605,12 +26605,12 @@
       </c>
       <c r="R327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE'}</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T327" t="inlineStr">
@@ -26642,60 +26642,60 @@
         <v>15405</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L328" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N328" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism'}</t>
         </is>
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT', 'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Chronic_Absenteeism.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Chronic_Absenteeism.ABSENT_COUNT', 'ACC_HS_Chronic_Absenteeism.SUBGROUP_NAME', 'ACC_HS_Chronic_Absenteeism.ENTITY_NAME', 'ACC_HS_Chronic_Absenteeism.ABSENT_RATE', 'ACC_HS_Chronic_Absenteeism.YEAR', 'ACC_HS_Chronic_Absenteeism.ENROLLMENT'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U328" t="n">
@@ -26765,7 +26765,7 @@
       </c>
       <c r="R329" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_COHORT', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.CORE_COHORT', 'ACC_HS_Core_and_Weighted_Performance.CORE_INDEX', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S329" t="inlineStr">
@@ -26802,60 +26802,60 @@
         <v>15332</v>
       </c>
       <c r="F330" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L330" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N330" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T330" t="inlineStr">
         <is>
-          <t>{'ACC_HS_Core_and_Weighted_Performance.SUBGROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.YEAR', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U330" t="n">
@@ -26915,12 +26915,12 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping', 'ACC_HS_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>{'ACC_EM_Core_and_Weighted_Performance', 'BOCES_and_N/RC'}</t>
+          <t>{'BOCES_and_N/RC', 'ACC_EM_Core_and_Weighted_Performance'}</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26930,12 +26930,12 @@
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.ENTITY_CD', 'ACC_HS_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'ACC_HS_Core_and_Weighted_Performance.SUBJECT'}</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME'}</t>
+          <t>{'BOCES_and_N/RC.SCHOOL_NAME', 'ACC_EM_Core_and_Weighted_Performance.SUBJECT', 'ACC_EM_Core_and_Weighted_Performance.ENTITY_NAME', 'ACC_EM_Core_and_Weighted_Performance.WEIGHTED_INDEX'}</t>
         </is>
       </c>
       <c r="U331" t="n">
@@ -27010,12 +27010,12 @@
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.YEAR', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.PROGRESS_RATE'}</t>
+          <t>{'ACC_HS_ELP.BENCHMARK', 'ACC_HS_ELP.SUCCESS_RATIO', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.LEVEL', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.PROGRESS_RATE', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="T332" t="inlineStr">
         <is>
-          <t>{'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.ENTITY_NAME', 'ACC_EM_ELP.SUBJECT'}</t>
+          <t>{'ACC_EM_ELP.SUBGROUP_NAME', 'ACC_EM_ELP.PROGRESS_RATE', 'ACC_EM_ELP.SUCCESS_RATIO', 'ACC_EM_ELP.SUBJECT', 'ACC_EM_ELP.YEAR', 'ACC_EM_ELP.LEVEL', 'ACC_EM_ELP.BENCHMARK', 'ACC_EM_ELP.ELL_COUNT', 'ACC_EM_ELP.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U332" t="n">
@@ -27090,7 +27090,7 @@
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T333" t="inlineStr">
@@ -27122,60 +27122,60 @@
         <v>15404</v>
       </c>
       <c r="F334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L334" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M334" t="n">
-        <v>0</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N334" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'ACC_HS_ELP', 'Expenditures_per_Pupil'}</t>
         </is>
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>{'ACC_HS_ELP', 'Expenditures_per_Pupil'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Expenditures_per_Pupil.ENTITY_NAME', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.ENTITY_CD', 'ACC_HS_ELP.SUBGROUP_NAME', 'Expenditures_per_Pupil.YEAR', 'ACC_HS_ELP.ENTITY_NAME', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.YEAR'}</t>
         </is>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Expenditures_per_Pupil.PER_FED_STATE_LOCAL_EXP'}</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_ELP.ELL_COUNT', 'ACC_HS_ELP.ENTITY_NAME', 'Expenditures_per_Pupil.FEDERAL_EXP', 'ACC_HS_ELP.SUBGROUP_NAME', 'ACC_HS_ELP.YEAR', 'Expenditures_per_Pupil.ENTITY_CD', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_ELP.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_NAME', 'ACC_HS_ELP.SUBJECT', 'Expenditures_per_Pupil.YEAR'}</t>
+          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'ACC_HS_ELP.INSTITUTION_ID', 'ACC_HS_ELP.SUBJECT', 'Expenditures_per_Pupil.FEDERAL_EXP'}</t>
         </is>
       </c>
       <c r="U334" t="n">
@@ -27245,7 +27245,7 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S335" t="inlineStr">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="T335" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U335" t="n">
@@ -27325,7 +27325,7 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.YEAR'}</t>
+          <t>{'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S336" t="inlineStr">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="T336" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.YEAR', 'Accountability_Status.OVERALL_STATUS'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_CD', 'Accountability_Status_by_Subgroup.ENTITY_CD', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U336" t="n">
@@ -27405,7 +27405,7 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE'}</t>
+          <t>{'Accountability_Status_by_Subgroup.OVERALL_STATUS', 'Accountability_Status_by_Subgroup.SCHOOL_TYPE', 'Accountability_Status_by_Subgroup.SUBGROUP_NAME', 'Accountability_Status_by_Subgroup.ENTITY_NAME', 'Accountability_Status_by_Subgroup.YEAR'}</t>
         </is>
       </c>
       <c r="S337" t="inlineStr">
@@ -27415,7 +27415,7 @@
       </c>
       <c r="T337" t="inlineStr">
         <is>
-          <t>{'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.ENTITY_NAME', 'Accountability_Status.YEAR'}</t>
+          <t>{'Accountability_Status.ENTITY_NAME', 'Accountability_Status.OVERALL_STATUS', 'Accountability_Status.YEAR'}</t>
         </is>
       </c>
       <c r="U337" t="n">
@@ -27485,12 +27485,12 @@
       </c>
       <c r="R338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED'}</t>
         </is>
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T338" t="inlineStr">
@@ -27565,12 +27565,12 @@
       </c>
       <c r="R339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.LEVEL2_%TESTED', 'Annual_EM_SCIENCE.LEVEL4_%TESTED', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.LEVEL1_%TESTED', 'Annual_EM_SCIENCE.LEVEL3_%TESTED', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.ENTITY_CD', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_EM_SCIENCE.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
@@ -27725,7 +27725,7 @@
       </c>
       <c r="R341" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="S341" t="inlineStr">
@@ -27805,7 +27805,7 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="S342" t="inlineStr">
@@ -27885,12 +27885,12 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_ENT'}</t>
+          <t>{'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.YEAR'}</t>
         </is>
       </c>
       <c r="S343" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T343" t="inlineStr">
@@ -27965,12 +27965,12 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.PER_EXP', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT'}</t>
+          <t>{'Annual_NYSESLAT.PER_EMER', 'Annual_NYSESLAT.PER_ENT', 'Annual_NYSESLAT.PER_TRAN', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.PER_COM', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.PER_EXP'}</t>
         </is>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>{'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD', 'Institution_Grouping.GROUP_NAME'}</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Annual_NYSESLAT.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T344" t="inlineStr">
@@ -28045,7 +28045,7 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>{'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.NUM_TRAN'}</t>
+          <t>{'Annual_NYSESLAT.ENTITY_NAME', 'Annual_NYSESLAT.NUM_EMER', 'Annual_NYSESLAT.SUBJECT', 'Annual_NYSESLAT.NUM_ENT', 'Annual_NYSESLAT.SUBGROUP_NAME', 'Annual_NYSESLAT.YEAR', 'Annual_NYSESLAT.NUM_EXP', 'Annual_NYSESLAT.NUM_TRAN'}</t>
         </is>
       </c>
       <c r="S345" t="inlineStr">
@@ -28285,17 +28285,17 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.BOCES_NAME', 'BOCES_and_N/RC.YEAR', 'Expenditures_per_Pupil.YEAR'}</t>
+          <t>{'BOCES_and_N/RC.BOCES_NAME', 'Expenditures_per_Pupil.YEAR', 'BOCES_and_N/RC.YEAR'}</t>
         </is>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>{'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'Expenditures_per_Pupil.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP'}</t>
+          <t>{'Expenditures_per_Pupil.PER_STATE_LOCAL_EXP', 'Expenditures_per_Pupil.PER_FEDERAL_EXP', 'BOCES_and_N/RC.ENTITY_CD', 'Expenditures_per_Pupil.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>{'BOCES_and_N/RC.INSTITUTION_ID', 'Expenditures_per_Pupil.FEDERAL_EXP', 'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID'}</t>
+          <t>{'Expenditures_per_Pupil.STATE_LOCAL_EXP', 'Expenditures_per_Pupil.INSTITUTION_ID', 'Expenditures_per_Pupil.FEDERAL_EXP', 'BOCES_and_N/RC.INSTITUTION_ID'}</t>
         </is>
       </c>
       <c r="U348" t="n">
@@ -28525,7 +28525,7 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.YEAR'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.NUM_TEACH', 'Inexperienced_Teachers_and_Principals.NUM_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S351" t="inlineStr">
@@ -28562,60 +28562,60 @@
         <v>15306</v>
       </c>
       <c r="F352" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I352" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L352" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N352" t="n">
-        <v>0</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.YEAR', 'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP', 'Inexperienced_Teachers_and_Principals.ENTITY_CD'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U352" t="n">
@@ -28642,60 +28642,60 @@
         <v>15300</v>
       </c>
       <c r="F353" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L353" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M353" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N353" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals'}</t>
         </is>
       </c>
       <c r="P353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'BOCES_and_N/RC'}</t>
         </is>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
         </is>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_CD', 'BOCES_and_N/RC.DISTRICT_NAME', 'BOCES_and_N/RC.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_NAME', 'Inexperienced_Teachers_and_Principals.PER_TEACH_INEXP'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="U353" t="n">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>{'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW', 'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW'}</t>
+          <t>{'Inexperienced_Teachers_and_Principals.TOT_PRINC_LOW', 'Inexperienced_Teachers_and_Principals.TOT_TEACH_LOW'}</t>
         </is>
       </c>
       <c r="S354" t="inlineStr">
@@ -28845,7 +28845,7 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.OUT_4_YR_CNT', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.OUT_4_YR_CNT'}</t>
         </is>
       </c>
       <c r="S355" t="inlineStr">
@@ -28925,7 +28925,7 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR'}</t>
+          <t>{'Postsecondary_Enrollment.YEAR', 'Postsecondary_Enrollment.PER_NYS_PUB_2_YR', 'Postsecondary_Enrollment.SUBGROUP_NAME', 'Postsecondary_Enrollment.PER_NYS_PUB_4_YR', 'Postsecondary_Enrollment.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S356" t="inlineStr">
@@ -28962,60 +28962,60 @@
         <v>15268</v>
       </c>
       <c r="F357" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L357" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="M357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N357" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification'}</t>
         </is>
       </c>
       <c r="P357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T357" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U357" t="n">
@@ -29085,7 +29085,7 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
+          <t>{'Teachers_Teaching_Out_of_Certification.NUM_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.YEAR', 'Teachers_Teaching_Out_of_Certification.PER_OUT_CERT', 'Teachers_Teaching_Out_of_Certification.ENTITY_NAME'}</t>
         </is>
       </c>
       <c r="S358" t="inlineStr">
@@ -29165,7 +29165,7 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>{'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.ENTITY_CD', 'BOCES_and_N/RC.COUNTY_NAME'}</t>
+          <t>{'BOCES_and_N/RC.ENTITY_CD', 'Teachers_Teaching_Out_of_Certification.ENTITY_CD', 'BOCES_and_N/RC.COUNTY_NAME'}</t>
         </is>
       </c>
       <c r="S359" t="inlineStr">
@@ -29245,7 +29245,7 @@
       </c>
       <c r="R360" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT'}</t>
+          <t>{'Total_Cohort_Regents_Exams.LEVEL1_COUNT', 'Total_Cohort_Regents_Exams.LEVEL4_COUNT', 'Total_Cohort_Regents_Exams.LEVEL2_COUNT', 'Total_Cohort_Regents_Exams.COHORT_COUNT', 'Total_Cohort_Regents_Exams.TEST_COUNT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL3_COUNT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S360" t="inlineStr">
@@ -29282,60 +29282,60 @@
         <v>15330</v>
       </c>
       <c r="F361" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L361" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N361" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Total_Cohort_Regents_Exams'}</t>
         </is>
       </c>
       <c r="P361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.SUBJECT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="S361" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Total_Cohort_Regents_Exams.ENTITY_CD'}</t>
         </is>
       </c>
       <c r="T361" t="inlineStr">
         <is>
-          <t>{'Total_Cohort_Regents_Exams.ENTITY_NAME', 'Total_Cohort_Regents_Exams.LEVEL4_%COHORT', 'Total_Cohort_Regents_Exams.COHORT', 'Total_Cohort_Regents_Exams.SUBGROUP_NAME', 'Total_Cohort_Regents_Exams.SUBJECT'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U361" t="n">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="R363" t="inlineStr">
         <is>
-          <t>{'Annual_EM_SCIENCE.YEAR', 'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME'}</t>
+          <t>{'Annual_EM_SCIENCE.ASSESSMENT_NAME', 'Annual_EM_SCIENCE.TOTAL_COUNT', 'Annual_EM_SCIENCE.ENTITY_NAME', 'Annual_EM_SCIENCE.SUBGROUP_NAME', 'Annual_EM_SCIENCE.YEAR'}</t>
         </is>
       </c>
       <c r="S363" t="inlineStr">
@@ -29522,60 +29522,60 @@
         <v>15310</v>
       </c>
       <c r="F364" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="I364" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L364" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="M364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N364" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment'}</t>
         </is>
       </c>
       <c r="P364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Institution_Grouping'}</t>
         </is>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.YEAR'}</t>
         </is>
       </c>
       <c r="S364" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'Postsecondary_Enrollment.ENTITY_CD', 'Institution_Grouping.GROUP_NAME', 'Institution_Grouping.ENTITY_CD', 'Institution_Grouping.ENTITY_NAME', 'Postsecondary_Enrollment.SUBGROUP_NAME'}</t>
         </is>
       </c>
       <c r="T364" t="inlineStr">
         <is>
-          <t>{'Postsecondary_Enrollment.ENTITY_NAME', 'Postsecondary_Enrollment.PER_OUT_4_YR', 'Postsecondary_Enrollment.YEAR'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U364" t="n">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Site_ID', 'tbl_Locations.Island'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S367" t="inlineStr">
@@ -30205,7 +30205,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Events.Verified_by', 'tbl_Events.Event_ID', 'tbl_Events.Repeat_Sample', 'tbl_Events.Start_Date'}</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Events.Start_Date', 'tbl_Events.Verified_by', 'tbl_Events.Repeat_Sample'}</t>
         </is>
       </c>
       <c r="S372" t="inlineStr">
@@ -30290,7 +30290,7 @@
       </c>
       <c r="S373" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Habitat', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="T373" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Habitat', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Habitat'}</t>
         </is>
       </c>
       <c r="S374" t="inlineStr">
@@ -30482,35 +30482,35 @@
         <v>7638</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P376" t="inlineStr">
@@ -30520,12 +30520,12 @@
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tlu_Species'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S376" t="inlineStr">
@@ -30535,7 +30535,7 @@
       </c>
       <c r="T376" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tlu_Species.Scientific_Name', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U376" t="n">
@@ -30562,35 +30562,35 @@
         <v>7681</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tbl_Habitat'}</t>
         </is>
       </c>
       <c r="P377" t="inlineStr">
@@ -30600,12 +30600,12 @@
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Habitat'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Habitat.Understory_Comp', 'tbl_Events.Event_ID', 'tbl_Habitat.Event_ID', 'tbl_Events.Entered_by', 'tbl_Habitat.Canopy_Comp'}</t>
         </is>
       </c>
       <c r="S377" t="inlineStr">
@@ -30615,7 +30615,7 @@
       </c>
       <c r="T377" t="inlineStr">
         <is>
-          <t>{'tbl_Habitat.Event_ID', 'tbl_Habitat.Understory_Comp', 'tbl_Events.Entered_by', 'tbl_Events.Event_ID', 'tbl_Habitat.Canopy_Comp'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U377" t="n">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="R378" t="inlineStr">
         <is>
-          <t>{'tbl_Event_Details.Gust', 'tbl_Events.Updated_by', 'tbl_Event_Details.Wind', 'tbl_Events.Entered_by', 'tbl_Events.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Rain'}</t>
+          <t>{'tbl_Event_Details.Cloud', 'tbl_Events.Event_ID', 'tbl_Event_Details.Wind', 'tbl_Events.Entered_by', 'tbl_Events.Updated_by', 'tbl_Event_Details.Rain', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Gust'}</t>
         </is>
       </c>
       <c r="S378" t="inlineStr">
@@ -30765,7 +30765,7 @@
       </c>
       <c r="R379" t="inlineStr">
         <is>
-          <t>{'tbl_Detections.Detection_ID', 'tbl_Detections.Observation_ID'}</t>
+          <t>{'tbl_Detections.Observation_ID', 'tbl_Detections.Detection_ID'}</t>
         </is>
       </c>
       <c r="S379" t="inlineStr">
@@ -30775,7 +30775,7 @@
       </c>
       <c r="T379" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Observation_ID', 'tbl_Observations.Sort_Order', 'tbl_Detections.Detection', 'tbl_Detections.Sort_Order'}</t>
+          <t>{'tbl_Detections.Sort_Order', 'tbl_Observations.Observation_ID', 'tbl_Observations.Sort_Order', 'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U379" t="n">
@@ -30882,35 +30882,35 @@
         <v>7649</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M381" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N381" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Detections', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P381" t="inlineStr">
@@ -30920,12 +30920,12 @@
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Detections', 'tlu_Species'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Observations.Observation_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Detections.Distance', 'tbl_Detections.Observation_ID'}</t>
         </is>
       </c>
       <c r="S381" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="T381" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Observation_ID', 'tbl_Detections.Distance', 'tlu_Species.Species_ID', 'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tbl_Detections.Observation_ID', 'tbl_Detections.Detection'}</t>
+          <t>{'tbl_Detections.Detection'}</t>
         </is>
       </c>
       <c r="U381" t="n">
@@ -31005,7 +31005,7 @@
       </c>
       <c r="R382" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'xref_Species_Alternate_Names.Species_ID', 'xref_Species_Alternate_Names.Alternate_Name', 'tlu_Species.Species_ID', 'tlu_Species.Family'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'xref_Species_Alternate_Names.Alternate_Name', 'xref_Species_Alternate_Names.Species_ID'}</t>
         </is>
       </c>
       <c r="S382" t="inlineStr">
@@ -31165,7 +31165,7 @@
       </c>
       <c r="R384" t="inlineStr">
         <is>
-          <t>{'tbl_Stations_UTMs.Station_ID', 'tbl_Stations_UTMs.Y_final', 'tbl_Stations.Station_ID', 'tbl_Stations_UTMs.X_final', 'tbl_Stations.Station'}</t>
+          <t>{'tbl_Stations_UTMs.X_final', 'tbl_Stations_UTMs.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Stations_UTMs.Y_final'}</t>
         </is>
       </c>
       <c r="S384" t="inlineStr">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title', 'tlu_Contacts.Organization', 'tlu_Contacts.Last_Name'}</t>
+          <t>{'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'tlu_Contacts.First_Name', 'tlu_Contacts.Position_Title'}</t>
         </is>
       </c>
       <c r="S385" t="inlineStr">
@@ -31310,7 +31310,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>{'tbl_Locations', 'tbl_Sites'}</t>
+          <t>{'tbl_Sites', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P386" t="inlineStr">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>{'tbl_Sites.Site_Name', 'tbl_Locations.Island', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
+          <t>{'tbl_Locations.Island', 'tbl_Sites.Site_Name', 'tbl_Sites.Site_ID', 'tbl_Locations.Site_ID'}</t>
         </is>
       </c>
       <c r="S386" t="inlineStr">
@@ -31630,7 +31630,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>{'tbl_Observations', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Event_Details', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P390" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="R390" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud'}</t>
+          <t>{'tbl_Event_Details.Event_ID', 'tbl_Event_Details.Cloud', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S390" t="inlineStr">
@@ -31810,12 +31810,12 @@
       </c>
       <c r="S392" t="inlineStr">
         <is>
-          <t>{'tbl_Transect.Transect_ID', 'tbl_Stations.Transect_ID', 'tbl_Transect.Location_ID'}</t>
+          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID'}</t>
         </is>
       </c>
       <c r="T392" t="inlineStr">
         <is>
-          <t>{'tbl_Plot.Pool', 'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Plot.Pool', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U392" t="n">
@@ -31842,60 +31842,60 @@
         <v>7648</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G393" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J393" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L393" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M393" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N393" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations', 'tbl_Locations'}</t>
         </is>
       </c>
       <c r="P393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Transect'}</t>
         </is>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Plot', 'tbl_Locations'}</t>
+          <t>{'tbl_Plot'}</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Locations.Island', 'tbl_Locations.Location_ID'}</t>
         </is>
       </c>
       <c r="S393" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Transect_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID'}</t>
         </is>
       </c>
       <c r="T393" t="inlineStr">
         <is>
-          <t>{'tbl_Plot.Pool', 'tbl_Locations.Location_ID', 'tbl_Stations.Station_ID', 'tbl_Locations.Island', 'tbl_Plot.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Plot.Pool', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U393" t="n">
@@ -31950,7 +31950,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>{'tbl_Events', 'tbl_Observations', 'tlu_Species', 'tbl_Event_Details'}</t>
+          <t>{'tbl_Events', 'tbl_Event_Details', 'tbl_Observations', 'tlu_Species'}</t>
         </is>
       </c>
       <c r="P394" t="inlineStr">
@@ -31965,7 +31965,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>{'tbl_Observations.Species_ID', 'tbl_Events.Event_ID', 'tbl_Event_Details.Event_ID', 'tlu_Species.Family', 'tlu_Species.Species_ID', 'tbl_Event_Details.Rain', 'tbl_Observations.Event_ID', 'tlu_Species.Species_Code'}</t>
+          <t>{'tbl_Events.Event_ID', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tlu_Species.Species_Code', 'tbl_Event_Details.Rain', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Event_Details.Event_ID'}</t>
         </is>
       </c>
       <c r="S394" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'xref_Event_Contacts.Event_ID', 'tlu_Contacts.Last_Name', 'tlu_Species.Scientific_Name', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S395" t="inlineStr">
@@ -32125,7 +32125,7 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Observations.Species_ID', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tlu_Species.Common_Name', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S396" t="inlineStr">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tbl_Stations.Station_ID', 'tbl_Events.Station_ID', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S397" t="inlineStr">
@@ -32242,35 +32242,35 @@
         <v>7598</v>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L398" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N398" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations'}</t>
         </is>
       </c>
       <c r="P398" t="inlineStr">
@@ -32280,22 +32280,22 @@
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Lat_final', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="S398" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Stations.Long_final'}</t>
         </is>
       </c>
       <c r="T398" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Lat_final', 'tbl_Stations.Station'}</t>
+          <t>set()</t>
         </is>
       </c>
       <c r="U398" t="n">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tbl_Stations.Station_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S399" t="inlineStr">
@@ -32445,7 +32445,7 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>{'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tlu_Species.Common_Name', 'tlu_Species.Species_ID'}</t>
+          <t>{'tlu_Species.Common_Name', 'tbl_Stations.Station_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Species_ID'}</t>
         </is>
       </c>
       <c r="S400" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="R401" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name', 'tlu_Contacts.Contact_ID', 'tlu_Contacts.Organization'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tlu_Contacts.Last_Name', 'tlu_Contacts.Organization', 'xref_Event_Contacts.Contact_ID', 'tlu_Contacts.First_Name'}</t>
         </is>
       </c>
       <c r="S401" t="inlineStr">
@@ -32605,7 +32605,7 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>{'tlu_Species.Common_Name', 'tbl_Habitat.Canopy_Height', 'tbl_Observations.Species_ID', 'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tlu_Species.Scientific_Name'}</t>
+          <t>{'tlu_Species.Scientific_Name', 'tlu_Species.Common_Name', 'tbl_Habitat.Event_ID', 'tlu_Species.Species_ID', 'tbl_Habitat.Canopy_Height', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S402" t="inlineStr">
@@ -32670,7 +32670,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts', 'xref_Species_Alternate_Names', 'tbl_Locations', 'xref_Event_Contacts', 'tlu_Species', 'tbl_Transect', 'tbl_Sites', 'tbl_Stations', 'tbl_Observations'}</t>
+          <t>{'xref_Species_Alternate_Names', 'tlu_Species', 'tbl_Locations', 'tbl_Transect', 'tbl_Stations', 'tlu_Contacts', 'xref_Event_Contacts', 'tbl_Observations', 'tbl_Sites'}</t>
         </is>
       </c>
       <c r="P403" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>{'tbl_Locations.Loc_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Transect.Location_ID', 'tlu_Species.Family', 'tlu_Species.Scientific_Name', 'tbl_Stations.Station', 'tbl_Sites.Site_ID', 'tbl_Locations.Island', 'tbl_Observations.Event_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_Name', 'tbl_Locations.Location_ID', 'tlu_Species.Common_Name', 'tbl_Transect.Transect_Type', 'tbl_Stations.Transect_ID', 'tlu_Species.Species_ID', 'tbl_Locations.Site_ID', 'tlu_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tbl_Transect.Transect_ID', 'tlu_Contacts.Last_Name', 'xref_Event_Contacts.Event_ID', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Observations.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Stations.Lat_final'}</t>
+          <t>{'tlu_Contacts.Contact_ID', 'tbl_Transect.Transect', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tlu_Species.Family', 'tbl_Stations.Station_ID', 'tbl_Stations.Station', 'tbl_Sites.Site_Name', 'xref_Species_Alternate_Names.Species_ID', 'tbl_Transect.Transect_Type', 'tbl_Stations.Lat_final', 'tbl_Transect.Transect_ID', 'tbl_Stations.Transect_ID', 'tbl_Locations.Site_ID', 'tlu_Contacts.Last_Name', 'xref_Species_Alternate_Names.Alternate_Name', 'tbl_Observations.Species_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Sites.Site_ID', 'tlu_Species.Scientific_Name', 'tbl_Locations.Location_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Location_ID', 'tbl_Locations.Loc_Name', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S403" t="inlineStr">
@@ -32695,7 +32695,7 @@
       </c>
       <c r="T403" t="inlineStr">
         <is>
-          <t>{'tlu_Contacts.Contact_Notes', 'tbl_Observations.Sort_Order'}</t>
+          <t>{'tbl_Observations.Sort_Order', 'tlu_Contacts.Contact_Notes'}</t>
         </is>
       </c>
       <c r="U403" t="n">
@@ -32722,60 +32722,60 @@
         <v>7698</v>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="G404" t="n">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="I404" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="J404" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K404" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L404" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M404" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N404" t="n">
-        <v>0</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events', 'tlu_Species', 'tbl_Locations', 'tbl_Stations', 'tbl_Observations'}</t>
         </is>
       </c>
       <c r="P404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'xref_Event_Contacts', 'tlu_Contacts', 'tbl_Transect'}</t>
         </is>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>{'tbl_Stations', 'tbl_Locations', 'tbl_Events', 'tbl_Observations', 'tbl_Plot', 'tlu_Species'}</t>
+          <t>{'tbl_Plot'}</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tbl_Events.Station_ID', 'tbl_Events.Event_ID', 'tbl_Locations.Location_ID', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tlu_Species.Species_ID', 'tbl_Stations.Station_ID', 'tbl_Observations.Species_ID', 'tbl_Observations.Event_ID'}</t>
         </is>
       </c>
       <c r="S404" t="inlineStr">
         <is>
-          <t>set()</t>
+          <t>{'tlu_Contacts.Contact_ID', 'xref_Event_Contacts.Event_ID', 'tbl_Transect.Transect_ID', 'tbl_Transect.Location_ID', 'xref_Event_Contacts.Contact_ID', 'tbl_Stations.Transect_ID'}</t>
         </is>
       </c>
       <c r="T404" t="inlineStr">
         <is>
-          <t>{'tbl_Events.Station_ID', 'tbl_Locations.Location_ID', 'tlu_Species.Common_Name', 'tbl_Locations.Island', 'tbl_Events.Event_ID', 'tbl_Observations.Species_ID', 'tbl_Plot.Pool', 'tlu_Species.Species_ID', 'tbl_Observations.Event_ID', 'tbl_Stations.Station_ID', 'tbl_Plot.Station_ID', 'tbl_Stations.Station'}</t>
+          <t>{'tbl_Plot.Station_ID', 'tbl_Plot.Pool', 'tbl_Stations.Station'}</t>
         </is>
       </c>
       <c r="U404" t="n">
@@ -32930,7 +32930,7 @@
       </c>
       <c r="S406" t="inlineStr">
         <is>
-          <t>{'OPEX.PayeeZip', 'OPEX.PayeeState', 'OPEX.PayeeCity', 'OUDP.Code', 'OPEX.PayeeName', 'OPEX.PayCountry', 'OPEX.PayeeStree', 'OUDP.Name', 'OPEX.Department'}</t>
+          <t>{'OPEX.Department', 'OPEX.PayeeName', 'OPEX.PayeeStree', 'OPEX.PayeeZip', 'OPEX.PayeeCity', 'OPEX.PayCountry', 'OUDP.Code', 'OPEX.PayeeState', 'OUDP.Name'}</t>
         </is>
       </c>
       <c r="T406" t="inlineStr">
@@ -33010,7 +33010,7 @@
       </c>
       <c r="S407" t="inlineStr">
         <is>
-          <t>{'CHO1.CheckKey', 'OCHO.CheckKey', 'OCHO.AcctNum'}</t>
+          <t>{'CHO1.CheckKey', 'OCHO.AcctNum', 'OCHO.CheckKey'}</t>
         </is>
       </c>
       <c r="T407" t="inlineStr">
@@ -33090,7 +33090,7 @@
       </c>
       <c r="S408" t="inlineStr">
         <is>
-          <t>{'OCHO.Deduction', 'OCHO.AcctNum', 'OCHO.DdctPrcnt'}</t>
+          <t>{'OCHO.DdctPrcnt', 'OCHO.AcctNum', 'OCHO.Deduction'}</t>
         </is>
       </c>
       <c r="T408" t="inlineStr">
@@ -33170,7 +33170,7 @@
       </c>
       <c r="S409" t="inlineStr">
         <is>
-          <t>{'ORCT.CreateDate', 'ORCT.CardCode', 'ORCT.CardName', 'ORCT.DocCurr', 'ORCT.Address', 'ORCT.TrsfrSumFC'}</t>
+          <t>{'ORCT.DocCurr', 'ORCT.Address', 'ORCT.CardCode', 'ORCT.TrsfrSumFC', 'ORCT.CardName', 'ORCT.CreateDate'}</t>
         </is>
       </c>
       <c r="T409" t="inlineStr">
@@ -33250,7 +33250,7 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>{'RCT1.AcctNum', 'RCT1.CountryCod', 'ORCT.DocNum', 'RCT1.DocNum', 'ORCT.WTOnhldPst', 'ORCT.CheckSumFC'}</t>
+          <t>{'ORCT.CheckSumFC', 'ORCT.WTOnhldPst', 'RCT1.AcctNum', 'ORCT.DocNum', 'RCT1.CountryCod', 'RCT1.DocNum'}</t>
         </is>
       </c>
       <c r="T410" t="inlineStr">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="P412" t="inlineStr">
         <is>
-          <t>{'ORCT', 'RCT3'}</t>
+          <t>{'RCT3', 'ORCT'}</t>
         </is>
       </c>
       <c r="Q412" t="inlineStr">
@@ -33410,7 +33410,7 @@
       </c>
       <c r="S412" t="inlineStr">
         <is>
-          <t>{'RCT3.FirstSum', 'ORCT.DocNum', 'RCT3.DocNum'}</t>
+          <t>{'RCT3.DocNum', 'ORCT.DocNum', 'RCT3.FirstSum'}</t>
         </is>
       </c>
       <c r="T412" t="inlineStr">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="S413" t="inlineStr">
         <is>
-          <t>{'OCRH.DepNum', 'OCRH.RctAbs', 'OCRH.DeposDate', 'OCRH.CardCode'}</t>
+          <t>{'OCRH.RctAbs', 'OCRH.DepNum', 'OCRH.CardCode', 'OCRH.DeposDate'}</t>
         </is>
       </c>
       <c r="T413" t="inlineStr">
@@ -33570,7 +33570,7 @@
       </c>
       <c r="S414" t="inlineStr">
         <is>
-          <t>{'OCTG.ExtraDays', 'OCTG.InstNum', 'OCTG.PymntGroup', 'OCTG.VATFirst'}</t>
+          <t>{'OCTG.InstNum', 'OCTG.ExtraDays', 'OCTG.VATFirst', 'OCTG.PymntGroup'}</t>
         </is>
       </c>
       <c r="T414" t="inlineStr">
@@ -33650,7 +33650,7 @@
       </c>
       <c r="S415" t="inlineStr">
         <is>
-          <t>{'OCRG.GroupName', 'OCRG.GroupCode', 'OCRD.GroupCode'}</t>
+          <t>{'OCRG.GroupCode', 'OCRD.GroupCode', 'OCRG.GroupName'}</t>
         </is>
       </c>
       <c r="T415" t="inlineStr">
@@ -33730,7 +33730,7 @@
       </c>
       <c r="S416" t="inlineStr">
         <is>
-          <t>{'OCPR.Name', 'OCPR.E_MailL', 'OCPR.Address', 'OCPR.Cellolar', 'OCPR.Position'}</t>
+          <t>{'OCPR.Position', 'OCPR.Cellolar', 'OCPR.Address', 'OCPR.E_MailL', 'OCPR.Name'}</t>
         </is>
       </c>
       <c r="T416" t="inlineStr">
@@ -33810,7 +33810,7 @@
       </c>
       <c r="S417" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OSLP.Commission'}</t>
+          <t>{'OSLP.Commission', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="T417" t="inlineStr">
@@ -33890,7 +33890,7 @@
       </c>
       <c r="S418" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OCOG.GroupCode', 'OSLP.GroupCode', 'OCOG.GroupName'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.SlpName', 'OCOG.GroupName', 'OCOG.GroupCode'}</t>
         </is>
       </c>
       <c r="T418" t="inlineStr">
@@ -33970,7 +33970,7 @@
       </c>
       <c r="S419" t="inlineStr">
         <is>
-          <t>{'OSLP.SlpName', 'OCOG.GroupCode', 'OSLP.Email', 'OSLP.Mobil', 'OSLP.GroupCode', 'OCOG.GroupName'}</t>
+          <t>{'OSLP.GroupCode', 'OSLP.Mobil', 'OCOG.GroupCode', 'OCOG.GroupName', 'OSLP.Email', 'OSLP.SlpName'}</t>
         </is>
       </c>
       <c r="T419" t="inlineStr">
@@ -34035,7 +34035,7 @@
       </c>
       <c r="P420" t="inlineStr">
         <is>
-          <t>{'OCRD', 'CRD1'}</t>
+          <t>{'CRD1', 'OCRD'}</t>
         </is>
       </c>
       <c r="Q420" t="inlineStr">
@@ -34050,7 +34050,7 @@
       </c>
       <c r="S420" t="inlineStr">
         <is>
-          <t>{'OCRD.PymCode', 'OCRD.CardCode', 'OCRD.CDPNum', 'CRD1.TaxCode', 'CRD1.CardCode'}</t>
+          <t>{'OCRD.PymCode', 'CRD1.CardCode', 'OCRD.CardCode', 'OCRD.CDPNum', 'CRD1.TaxCode'}</t>
         </is>
       </c>
       <c r="T420" t="inlineStr">
@@ -34130,7 +34130,7 @@
       </c>
       <c r="S421" t="inlineStr">
         <is>
-          <t>{'OCLG.CntctDate', 'OCLG.ClgCode', 'OCLG.CntctTime', 'OCLG.Details', 'OCLG.CreateDate'}</t>
+          <t>{'OCLG.CntctDate', 'OCLG.CreateDate', 'OCLG.Details', 'OCLG.ClgCode', 'OCLG.CntctTime'}</t>
         </is>
       </c>
       <c r="T421" t="inlineStr">
@@ -34210,7 +34210,7 @@
       </c>
       <c r="S422" t="inlineStr">
         <is>
-          <t>{'OCRD.Country', 'OCRD.CardName', 'OCRB.Country', 'OCRB.City', 'OCRD.BankCode', 'OCRB.BankCode', 'OCRD.CardCode', 'OCRB.Account', 'OCRB.CardCode', 'OCRB.Branch', 'OCRD.City'}</t>
+          <t>{'OCRB.BankCode', 'OCRB.CardCode', 'OCRB.Country', 'OCRD.CardCode', 'OCRD.BankCode', 'OCRB.Branch', 'OCRD.City', 'OCRB.City', 'OCRD.Country', 'OCRD.CardName', 'OCRB.Account'}</t>
         </is>
       </c>
       <c r="T422" t="inlineStr">
@@ -34290,7 +34290,7 @@
       </c>
       <c r="S423" t="inlineStr">
         <is>
-          <t>{'OCRD.Balance', 'OCRD.PymCode', 'OCRD.Currency'}</t>
+          <t>{'OCRD.PymCode', 'OCRD.Balance', 'OCRD.Currency'}</t>
         </is>
       </c>
       <c r="T423" t="inlineStr">
@@ -34355,7 +34355,7 @@
       </c>
       <c r="P424" t="inlineStr">
         <is>
-          <t>{'TGG1', 'OTGG'}</t>
+          <t>{'OTGG', 'TGG1'}</t>
         </is>
       </c>
       <c r="Q424" t="inlineStr">
@@ -34370,7 +34370,7 @@
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>{'OTGG.TargetCode', 'TGG1.Position', 'TGG1.LicTradNum', 'TGG1.E_Mail', 'TGG1.TargetCode', 'OTGG.TargetType'}</t>
+          <t>{'TGG1.Position', 'TGG1.E_Mail', 'TGG1.TargetCode', 'OTGG.TargetType', 'TGG1.LicTradNum', 'OTGG.TargetCode'}</t>
         </is>
       </c>
       <c r="T424" t="inlineStr">
@@ -34450,7 +34450,7 @@
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>{'OACT.AcctCode', 'OACT.AcctName', 'JDT1.Account'}</t>
+          <t>{'JDT1.Account', 'OACT.AcctName', 'OACT.AcctCode'}</t>
         </is>
       </c>
       <c r="T425" t="inlineStr">
@@ -34595,7 +34595,7 @@
       </c>
       <c r="P427" t="inlineStr">
         <is>
-          <t>{'OACT', 'BGT1'}</t>
+          <t>{'BGT1', 'OACT'}</t>
         </is>
       </c>
       <c r="Q427" t="inlineStr">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t>{'OACT.AcctName', 'BGT1.AcctCode', 'BGT1.DebLTotal', 'BGT1.CredLTotal', 'OACT.AcctCode'}</t>
+          <t>{'BGT1.CredLTotal', 'OACT.AcctCode', 'BGT1.DebLTotal', 'BGT1.AcctCode', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T427" t="inlineStr">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="S428" t="inlineStr">
         <is>
-          <t>{'OACT.Category', 'OACG.AbsId', 'OACT.CurrTotal', 'OACG.Name', 'OACT.AcctName'}</t>
+          <t>{'OACT.Category', 'OACT.CurrTotal', 'OACG.Name', 'OACG.AbsId', 'OACT.AcctName'}</t>
         </is>
       </c>
       <c r="T428" t="inlineStr">
@@ -34770,7 +34770,7 @@
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>{'TAX1.VatPercent', 'TAX1.TaxCode', 'OTAX.AbsEntry', 'TAX1.AbsEntry', 'TAX1.VatSum', 'OTAX.SrcObjAbs'}</t>
+          <t>{'TAX1.VatPercent', 'OTAX.AbsEntry', 'TAX1.VatSum', 'TAX1.TaxCode', 'TAX1.AbsEntry', 'OTAX.SrcObjAbs'}</t>
         </is>
       </c>
       <c r="T429" t="inlineStr">
@@ -35075,7 +35075,7 @@
       </c>
       <c r="P433" t="inlineStr">
         <is>
-          <t>{'OFRC', 'FRC1'}</t>
+          <t>{'FRC1', 'OFRC'}</t>
         </is>
       </c>
       <c r="Q433" t="inlineStr">
@@ -35090,7 +35090,7 @@
       </c>
       <c r="S433" t="inlineStr">
         <is>
-          <t>{'OFRC.Name', 'FRC1.CatId', 'FRC1.CFWId', 'FRC1.CalcMethod', 'FRC1.CalMethod3', 'OFRC.CatId', 'FRC1.CalMethod2'}</t>
+          <t>{'FRC1.CFWId', 'FRC1.CatId', 'OFRC.Name', 'FRC1.CalMethod2', 'OFRC.CatId', 'FRC1.CalcMethod', 'FRC1.CalMethod3'}</t>
         </is>
       </c>
       <c r="T433" t="inlineStr">
@@ -35170,7 +35170,7 @@
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>{'OPRJ.PrjName', 'OPRJ.PrjCode', 'OPRJ.ValidFrom'}</t>
+          <t>{'OPRJ.PrjCode', 'OPRJ.PrjName', 'OPRJ.ValidFrom'}</t>
         </is>
       </c>
       <c r="T434" t="inlineStr">
@@ -35250,7 +35250,7 @@
       </c>
       <c r="S435" t="inlineStr">
         <is>
-          <t>{'PMG1.EXPCOSTS', 'PMG1.DSCRIPTION', 'PMG1.START'}</t>
+          <t>{'PMG1.START', 'PMG1.EXPCOSTS', 'PMG1.DSCRIPTION'}</t>
         </is>
       </c>
       <c r="T435" t="inlineStr">
@@ -35410,7 +35410,7 @@
       </c>
       <c r="S437" t="inlineStr">
         <is>
-          <t>{'DAB1.DsbEntry', 'ODAB.AbsEntry', 'ODAB.DashbdCode'}</t>
+          <t>{'DAB1.DsbEntry', 'ODAB.DashbdCode', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T437" t="inlineStr">
@@ -35490,7 +35490,7 @@
       </c>
       <c r="S438" t="inlineStr">
         <is>
-          <t>{'ODAB.AbsEntry', 'ODAB.Status', 'ODAB.DashbdPath', 'ODAB.DashbdName', 'DAB1.QryName', 'DAB1.DsbEntry', 'DAB1.QryCtgry'}</t>
+          <t>{'ODAB.Status', 'ODAB.DashbdName', 'DAB1.QryCtgry', 'DAB1.QryName', 'ODAB.DashbdPath', 'DAB1.DsbEntry', 'ODAB.AbsEntry'}</t>
         </is>
       </c>
       <c r="T438" t="inlineStr">
@@ -35570,7 +35570,7 @@
       </c>
       <c r="S439" t="inlineStr">
         <is>
-          <t>{'OKPS.KpsType', 'OKPS.KpsCode', 'OKPS.KpsName', 'OKPS.FieldsNum'}</t>
+          <t>{'OKPS.KpsName', 'OKPS.FieldsNum', 'OKPS.KpsCode', 'OKPS.KpsType'}</t>
         </is>
       </c>
       <c r="T439" t="inlineStr">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="P440" t="inlineStr">
         <is>
-          <t>{'ORSC', 'RSC4'}</t>
+          <t>{'RSC4', 'ORSC'}</t>
         </is>
       </c>
       <c r="Q440" t="inlineStr">
@@ -35650,7 +35650,7 @@
       </c>
       <c r="S440" t="inlineStr">
         <is>
-          <t>{'ORSC.ResGrpCod', 'ORSC.ResCode', 'ORSC.StdCost1', 'RSC4.EmpID', 'ORSC.ResType', 'ORSC.ResName', 'RSC4.ResCode'}</t>
+          <t>{'RSC4.EmpID', 'ORSC.ResType', 'ORSC.StdCost1', 'RSC4.ResCode', 'ORSC.ResName', 'ORSC.ResGrpCod', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="T440" t="inlineStr">
@@ -35715,7 +35715,7 @@
       </c>
       <c r="P441" t="inlineStr">
         <is>
-          <t>{'ORSC', 'RSC6'}</t>
+          <t>{'RSC6', 'ORSC'}</t>
         </is>
       </c>
       <c r="Q441" t="inlineStr">
@@ -35730,7 +35730,7 @@
       </c>
       <c r="S441" t="inlineStr">
         <is>
-          <t>{'RSC6.WeekDay', 'RSC6.ResCode', 'ORSC.ResCode', 'RSC6.CapFactor1', 'ORSC.ResName'}</t>
+          <t>{'RSC6.ResCode', 'RSC6.WeekDay', 'RSC6.CapFactor1', 'ORSC.ResName', 'ORSC.ResCode'}</t>
         </is>
       </c>
       <c r="T441" t="inlineStr">
@@ -35795,7 +35795,7 @@
       </c>
       <c r="P442" t="inlineStr">
         <is>
-          <t>{'PMG2', 'OPMG'}</t>
+          <t>{'OPMG', 'PMG2'}</t>
         </is>
       </c>
       <c r="Q442" t="inlineStr">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="S442" t="inlineStr">
         <is>
-          <t>{'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.REMARKS', 'OPMG.AbsEntry', 'PMG2.AbsEntry'}</t>
+          <t>{'OPMG.AbsEntry', 'OPMG.NAME', 'PMG2.SOLUTION', 'PMG2.REMARKS', 'PMG2.AbsEntry'}</t>
         </is>
       </c>
       <c r="T442" t="inlineStr">
@@ -35875,7 +35875,7 @@
       </c>
       <c r="P443" t="inlineStr">
         <is>
-          <t>{'OCPT', 'CPT1'}</t>
+          <t>{'CPT1', 'OCPT'}</t>
         </is>
       </c>
       <c r="Q443" t="inlineStr">
@@ -35890,7 +35890,7 @@
       </c>
       <c r="S443" t="inlineStr">
         <is>
-          <t>{'OCPT._Left', 'CPT1._Left', 'CPT1.AbsEntry', 'CPT1._Top', 'CPT1._Bottom', 'OCPT.Name', 'OCPT._Top', 'OCPT.AbsEntry', 'CPT1._Right'}</t>
+          <t>{'CPT1._Left', 'CPT1._Bottom', 'CPT1.AbsEntry', 'OCPT.AbsEntry', 'CPT1._Right', 'OCPT.Name', 'OCPT._Left', 'CPT1._Top', 'OCPT._Top'}</t>
         </is>
       </c>
       <c r="T443" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="P445" t="inlineStr">
         <is>
-          <t>{'OHTM', 'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q445" t="inlineStr">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.name', 'OHEM.lastName', 'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.firstName'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.lastName', 'OHEM.empID', 'OHEM.firstName'}</t>
         </is>
       </c>
       <c r="T445" t="inlineStr">
@@ -36130,7 +36130,7 @@
       </c>
       <c r="S446" t="inlineStr">
         <is>
-          <t>{'HLD1.EndDate', 'HLD1.StrDate', 'HLD1.Rmrks'}</t>
+          <t>{'HLD1.StrDate', 'HLD1.EndDate', 'HLD1.Rmrks'}</t>
         </is>
       </c>
       <c r="T446" t="inlineStr">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="P447" t="inlineStr">
         <is>
-          <t>{'OHTM', 'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q447" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="S447" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.name', 'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.salary'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.salary', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T447" t="inlineStr">
@@ -36290,7 +36290,7 @@
       </c>
       <c r="S448" t="inlineStr">
         <is>
-          <t>{'OHEM.officeTel', 'OHEM.lastName', 'OHEM.mobile', 'OHEM.homeTel', 'OHEM.firstName', 'OHEM.pager'}</t>
+          <t>{'OHEM.mobile', 'OHEM.officeTel', 'OHEM.pager', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="T448" t="inlineStr">
@@ -36370,7 +36370,7 @@
       </c>
       <c r="S449" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.SurnameSP', 'OHEM.firstName', 'OHEM.FNameSP'}</t>
+          <t>{'OHEM.lastName', 'OHEM.firstName', 'OHEM.SurnameSP', 'OHEM.FNameSP'}</t>
         </is>
       </c>
       <c r="T449" t="inlineStr">
@@ -36450,7 +36450,7 @@
       </c>
       <c r="S450" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.nChildren', 'OHEM.type', 'OHTY.typeID', 'OHTY.name', 'OHEM.StatusOfE'}</t>
+          <t>{'OHEM.nChildren', 'OHTY.typeID', 'OHEM.lastName', 'OHEM.StatusOfE', 'OHEM.type', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T450" t="inlineStr">
@@ -36610,7 +36610,7 @@
       </c>
       <c r="S452" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.HeaInsName', 'OHEM.empID', 'OHEM.HeaInsCode'}</t>
+          <t>{'OHEM.HeaInsCode', 'OHEM.HeaInsName', 'OHEM.lastName', 'OHEM.HeaInsType', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T452" t="inlineStr">
@@ -36755,7 +36755,7 @@
       </c>
       <c r="P454" t="inlineStr">
         <is>
-          <t>{'OHTM', 'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q454" t="inlineStr">
@@ -36770,7 +36770,7 @@
       </c>
       <c r="S454" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.name', 'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.VacCurYear'}</t>
+          <t>{'OHTM.teamID', 'OHTM.name', 'HTM1.teamID', 'HTM1.empID', 'OHEM.VacCurYear', 'OHEM.empID'}</t>
         </is>
       </c>
       <c r="T454" t="inlineStr">
@@ -36835,7 +36835,7 @@
       </c>
       <c r="P455" t="inlineStr">
         <is>
-          <t>{'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q455" t="inlineStr">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="S455" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHEM.empID', 'OHEM.CPF', 'HTM1.teamID'}</t>
+          <t>{'OHEM.CPF', 'OHEM.empID', 'HTM1.teamID', 'HTM1.empID'}</t>
         </is>
       </c>
       <c r="T455" t="inlineStr">
@@ -36930,7 +36930,7 @@
       </c>
       <c r="S456" t="inlineStr">
         <is>
-          <t>{'OHEM.MunKey', 'OHEM.InTaxLiabi', 'OHEM.TaxClass', 'OHEM.type', 'OHTY.typeID', 'OHTY.name'}</t>
+          <t>{'OHTY.typeID', 'OHEM.MunKey', 'OHEM.InTaxLiabi', 'OHEM.type', 'OHEM.TaxClass', 'OHTY.name'}</t>
         </is>
       </c>
       <c r="T456" t="inlineStr">
@@ -37010,7 +37010,7 @@
       </c>
       <c r="S457" t="inlineStr">
         <is>
-          <t>{'HEM6.empID', 'HEM6.roleID', 'OHEM.empID', 'OHEM.salary'}</t>
+          <t>{'HEM6.empID', 'OHEM.salary', 'OHEM.empID', 'HEM6.roleID'}</t>
         </is>
       </c>
       <c r="T457" t="inlineStr">
@@ -37090,7 +37090,7 @@
       </c>
       <c r="S458" t="inlineStr">
         <is>
-          <t>{'OHEM.birthDate', 'OHEM.brthCountr', 'OHEM.homeCity', 'OHEM.jobTitle', 'OHEM.homeCountr', 'OHEM.homeCounty'}</t>
+          <t>{'OHEM.homeCountr', 'OHEM.jobTitle', 'OHEM.brthCountr', 'OHEM.birthDate', 'OHEM.homeCounty', 'OHEM.homeCity'}</t>
         </is>
       </c>
       <c r="T458" t="inlineStr">
@@ -37170,7 +37170,7 @@
       </c>
       <c r="S459" t="inlineStr">
         <is>
-          <t>{'OHEM.StatusOfP', 'OHEM.lastName', 'OHEM.citizenshp', 'OHEM.passportNo'}</t>
+          <t>{'OHEM.lastName', 'OHEM.passportNo', 'OHEM.StatusOfP', 'OHEM.citizenshp'}</t>
         </is>
       </c>
       <c r="T459" t="inlineStr">
@@ -37250,7 +37250,7 @@
       </c>
       <c r="S460" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.workCity', 'OHEM.emplCost', 'OHEM.homeCity', 'OHEM.firstName'}</t>
+          <t>{'OHEM.emplCost', 'OHEM.workCity', 'OHEM.lastName', 'OHEM.firstName', 'OHEM.homeCity'}</t>
         </is>
       </c>
       <c r="T460" t="inlineStr">
@@ -37315,7 +37315,7 @@
       </c>
       <c r="P461" t="inlineStr">
         <is>
-          <t>{'OHTM', 'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q461" t="inlineStr">
@@ -37330,7 +37330,7 @@
       </c>
       <c r="S461" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.name', 'OHEM.MunKey', 'OHEM.homeCity', 'OHEM.homeTel', 'OHEM.officeTel', 'OHEM.workCity', 'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID'}</t>
+          <t>{'OHTM.name', 'HTM1.empID', 'OHEM.empID', 'OHEM.MunKey', 'OHEM.homeCity', 'OHTM.teamID', 'OHEM.officeTel', 'HTM1.teamID', 'OHEM.workCity', 'OHEM.homeTel'}</t>
         </is>
       </c>
       <c r="T461" t="inlineStr">
@@ -37395,7 +37395,7 @@
       </c>
       <c r="P462" t="inlineStr">
         <is>
-          <t>{'OHTM', 'OHEM', 'HTM1'}</t>
+          <t>{'HTM1', 'OHTM', 'OHEM'}</t>
         </is>
       </c>
       <c r="Q462" t="inlineStr">
@@ -37410,7 +37410,7 @@
       </c>
       <c r="S462" t="inlineStr">
         <is>
-          <t>{'HTM1.empID', 'OHTM.name', 'OHEM.StatusOfP', 'OHEM.StatusOfE', 'OHEM.StreetNoW', 'HTM1.teamID', 'OHTM.teamID', 'OHEM.empID', 'OHEM.StreetNoH'}</t>
+          <t>{'OHTM.name', 'OHEM.StatusOfP', 'HTM1.empID', 'OHEM.StatusOfE', 'OHEM.empID', 'OHTM.teamID', 'OHEM.StreetNoH', 'HTM1.teamID', 'OHEM.StreetNoW'}</t>
         </is>
       </c>
       <c r="T462" t="inlineStr">
@@ -37490,7 +37490,7 @@
       </c>
       <c r="S463" t="inlineStr">
         <is>
-          <t>{'OHEM.PymMeth', 'OHEM.ExemptCurr', 'OHEM.TaxOName', 'OHEM.AddiCurr'}</t>
+          <t>{'OHEM.ExemptCurr', 'OHEM.PymMeth', 'OHEM.TaxOName', 'OHEM.AddiCurr'}</t>
         </is>
       </c>
       <c r="T463" t="inlineStr">
@@ -37570,7 +37570,7 @@
       </c>
       <c r="S464" t="inlineStr">
         <is>
-          <t>{'OHEM.lastName', 'OHEM.martStatus', 'OHEM.homeState', 'OHEM.homeBlock', 'OHEM.homeZip', 'OHEM.homeStreet'}</t>
+          <t>{'OHEM.homeZip', 'OHEM.lastName', 'OHEM.homeStreet', 'OHEM.homeBlock', 'OHEM.homeState', 'OHEM.martStatus'}</t>
         </is>
       </c>
       <c r="T464" t="inlineStr">
@@ -37650,7 +37650,7 @@
       </c>
       <c r="S465" t="inlineStr">
         <is>
-          <t>{'OITM.IsCommited', 'OITM.ItemName', 'OITM.OnHand', 'OITM.OnOrder'}</t>
+          <t>{'OITM.OnOrder', 'OITM.OnHand', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T465" t="inlineStr">
@@ -37730,7 +37730,7 @@
       </c>
       <c r="S466" t="inlineStr">
         <is>
-          <t>{'OITM.ItemName', 'OITM.IsCommited', 'OITM.ItemCode', 'ITM1.ItemCode', 'ITM1.Price'}</t>
+          <t>{'OITM.ItemCode', 'ITM1.ItemCode', 'ITM1.Price', 'OITM.IsCommited', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T466" t="inlineStr">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="P467" t="inlineStr">
         <is>
-          <t>{'OITM', 'ITM2'}</t>
+          <t>{'ITM2', 'OITM'}</t>
         </is>
       </c>
       <c r="Q467" t="inlineStr">
@@ -37810,7 +37810,7 @@
       </c>
       <c r="S467" t="inlineStr">
         <is>
-          <t>{'OITM.Consig', 'OITM.ItemName', 'OITM.ItemCode', 'OITM.LastPurPrc', 'ITM2.VendorCode', 'ITM2.ItemCode'}</t>
+          <t>{'OITM.LastPurPrc', 'OITM.ItemCode', 'OITM.ItemName', 'ITM2.VendorCode', 'ITM2.ItemCode', 'OITM.Consig'}</t>
         </is>
       </c>
       <c r="T467" t="inlineStr">
@@ -37890,7 +37890,7 @@
       </c>
       <c r="S468" t="inlineStr">
         <is>
-          <t>{'ITM4.ItemCode', 'ITM4.Length1', 'ITM4.Width1', 'OITM.ItemCode', 'ITM4.Height1', 'ITM4.Volume', 'ITM4.QtyPerPack', 'OITM.ItemName'}</t>
+          <t>{'ITM4.Volume', 'ITM4.Length1', 'ITM4.Width1', 'ITM4.Height1', 'ITM4.QtyPerPack', 'OITM.ItemName', 'OITM.ItemCode', 'ITM4.ItemCode'}</t>
         </is>
       </c>
       <c r="T468" t="inlineStr">
@@ -37970,7 +37970,7 @@
       </c>
       <c r="S469" t="inlineStr">
         <is>
-          <t>{'ITM7.RemainLife', 'ITM7.RemainDays', 'ITM7.DprArea', 'ITM7.UsefulLife'}</t>
+          <t>{'ITM7.DprArea', 'ITM7.UsefulLife', 'ITM7.RemainLife', 'ITM7.RemainDays'}</t>
         </is>
       </c>
       <c r="T469" t="inlineStr">
@@ -38130,7 +38130,7 @@
       </c>
       <c r="S471" t="inlineStr">
         <is>
-          <t>{'OBCD.BcdCode', 'OBCD.UomEntry', 'OBCD.ItemCode', 'OITM.ItemCode', 'OITM.ItemName'}</t>
+          <t>{'OBCD.UomEntry', 'OITM.ItemCode', 'OBCD.ItemCode', 'OBCD.BcdCode', 'OITM.ItemName'}</t>
         </is>
       </c>
       <c r="T471" t="inlineStr">
@@ -38210,7 +38210,7 @@
       </c>
       <c r="S472" t="inlineStr">
         <is>
-          <t>{'OBFC.UpdateDate', 'OBFC.Activated', 'OBFC.DataSource', 'OBFC.DispName'}</t>
+          <t>{'OBFC.Activated', 'OBFC.DispName', 'OBFC.DataSource', 'OBFC.UpdateDate'}</t>
         </is>
       </c>
       <c r="T472" t="inlineStr">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="P473" t="inlineStr">
         <is>
-          <t>{'OITB', 'OITM'}</t>
+          <t>{'OITM', 'OITB'}</t>
         </is>
       </c>
       <c r="Q473" t="inlineStr">
@@ -38290,7 +38290,7 @@
       </c>
       <c r="S473" t="inlineStr">
         <is>
-          <t>{'OITM.ItmsGrpCod', 'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
+          <t>{'OITB.ItmsGrpCod', 'OITB.ItmsGrpNam', 'OITM.ItmsGrpCod'}</t>
         </is>
       </c>
       <c r="T473" t="inlineStr">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="P474" t="inlineStr">
         <is>
-          <t>{'OITB', 'ITM4', 'OITM'}</t>
+          <t>{'OITM', 'OITB', 'ITM4'}</t>
         </is>
       </c>
       <c r="Q474" t="inlineStr">
@@ -38370,7 +38370,7 @@
       </c>
       <c r="S474" t="inlineStr">
         <is>
-          <t>{'ITM4.ItemCode', 'OITB.ItmsGrpCod', 'OITM.ItemCode', 'ITM4.Volume', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
+          <t>{'OITB.ItmsGrpCod', 'ITM4.Volume', 'OITM.ItemCode', 'ITM4.ItemCode', 'OITM.ItmsGrpCod', 'OITB.ItmsGrpNam'}</t>
         </is>
       </c>
       <c r="T474" t="inlineStr">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="P475" t="inlineStr">
         <is>
-          <t>{'OECM', 'ECM1'}</t>
+          <t>{'ECM1', 'OECM'}</t>
         </is>
       </c>
       <c r="Q475" t="inlineStr">
@@ -38450,7 +38450,7 @@
       </c>
       <c r="S475" t="inlineStr">
         <is>
-          <t>{'ECM1.ParamName', 'ECM1.ParamPrms', 'ECM1.Code', 'OECM.Code', 'OECM.Descr'}</t>
+          <t>{'ECM1.ParamPrms', 'OECM.Descr', 'ECM1.Code', 'OECM.Code', 'ECM1.ParamName'}</t>
         </is>
       </c>
       <c r="T475" t="inlineStr">
@@ -38530,7 +38530,7 @@
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>{'ECM4.FieldXPath', 'OECM.Descr', 'ECM4.Code', 'ECM4.ObjXPath', 'OECM.Code'}</t>
+          <t>{'ECM4.FieldXPath', 'OECM.Descr', 'OECM.Code', 'ECM4.ObjXPath', 'ECM4.Code'}</t>
         </is>
       </c>
       <c r="T476" t="inlineStr">
@@ -38690,7 +38690,7 @@
       </c>
       <c r="S478" t="inlineStr">
         <is>
-          <t>{'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.LogInstanc', 'OQAG.AUTHGRPN', 'OQAG.AUTHGRPCD'}</t>
+          <t>{'OQAG.CreateDate', 'OQAG.UpdateDate', 'OQAG.LogInstanc', 'OQAG.AUTHGRPCD', 'OQAG.AUTHGRPN'}</t>
         </is>
       </c>
       <c r="T478" t="inlineStr">
@@ -38850,7 +38850,7 @@
       </c>
       <c r="S480" t="inlineStr">
         <is>
-          <t>{'RDOC.TypeCode', 'RDOC.ScreenFont', 'RDOC.EmailFont'}</t>
+          <t>{'RDOC.ScreenFont', 'RDOC.TypeCode', 'RDOC.EmailFont'}</t>
         </is>
       </c>
       <c r="T480" t="inlineStr">
@@ -38915,7 +38915,7 @@
       </c>
       <c r="P481" t="inlineStr">
         <is>
-          <t>{'RDOC', 'RTYP'}</t>
+          <t>{'RTYP', 'RDOC'}</t>
         </is>
       </c>
       <c r="Q481" t="inlineStr">
@@ -38930,7 +38930,7 @@
       </c>
       <c r="S481" t="inlineStr">
         <is>
-          <t>{'RTYP.DEFLT_REP', 'RTYP.CODE', 'RDOC.DocCode', 'RTYP.NAME'}</t>
+          <t>{'RTYP.DEFLT_REP', 'RDOC.DocCode', 'RTYP.NAME', 'RTYP.CODE'}</t>
         </is>
       </c>
       <c r="T481" t="inlineStr">
@@ -39010,7 +39010,7 @@
       </c>
       <c r="S482" t="inlineStr">
         <is>
-          <t>{'RDOC.DocCode', 'RDOC.TypeCode', 'RDOC.DocName', 'RITM.DocCode'}</t>
+          <t>{'RDOC.DocCode', 'RITM.DocCode', 'RDOC.DocName', 'RDOC.TypeCode'}</t>
         </is>
       </c>
       <c r="T482" t="inlineStr">
@@ -39090,7 +39090,7 @@
       </c>
       <c r="S483" t="inlineStr">
         <is>
-          <t>{'RDOC.SwpInEmail', 'RDOC.NumRepArs', 'RDOC.ExtOnErr'}</t>
+          <t>{'RDOC.ExtOnErr', 'RDOC.NumRepArs', 'RDOC.SwpInEmail'}</t>
         </is>
       </c>
       <c r="T483" t="inlineStr">
@@ -39170,7 +39170,7 @@
       </c>
       <c r="S484" t="inlineStr">
         <is>
-          <t>{'RITM.BrdrBlue', 'RITM.FGGreen', 'RITM.BrdrGreen', 'RITM.BGBlue', 'RITM.Height', 'RITM.BGRed', 'RITM.BGGreen', 'RITM.MrkrRed', 'RITM.MrkrGreen', 'RITM.MrkrBlue', 'RITM.BrdrRed', 'RITM.FGRed', 'RITM.FGBlue'}</t>
+          <t>{'RITM.FGGreen', 'RITM.BGRed', 'RITM.MrkrBlue', 'RITM.BGGreen', 'RITM.FGBlue', 'RITM.Height', 'RITM.BGBlue', 'RITM.FGRed', 'RITM.MrkrGreen', 'RITM.BrdrRed', 'RITM.MrkrRed', 'RITM.BrdrGreen', 'RITM.BrdrBlue'}</t>
         </is>
       </c>
       <c r="T484" t="inlineStr">
@@ -39250,7 +39250,7 @@
       </c>
       <c r="S485" t="inlineStr">
         <is>
-          <t>{'OOPR.MaxSumLoc', 'OOPR.CardGroup'}</t>
+          <t>{'OOPR.CardGroup', 'OOPR.MaxSumLoc'}</t>
         </is>
       </c>
       <c r="T485" t="inlineStr">
@@ -39330,7 +39330,7 @@
       </c>
       <c r="S486" t="inlineStr">
         <is>
-          <t>{'OOPR.SumProfS', 'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfL'}</t>
+          <t>{'OOPR.Status', 'OOPR.PrcnProf', 'OOPR.SumProfS', 'OOPR.SumProfL'}</t>
         </is>
       </c>
       <c r="T486" t="inlineStr">
@@ -39410,7 +39410,7 @@
       </c>
       <c r="S487" t="inlineStr">
         <is>
-          <t>{'OPR1.OpprId', 'OOPR.CardCode', 'OPR1.ClosePrcnt', 'OOPR.OpprId'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpprId', 'OOPR.CardCode', 'OOPR.OpprId'}</t>
         </is>
       </c>
       <c r="T487" t="inlineStr">
@@ -39490,7 +39490,7 @@
       </c>
       <c r="S488" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.WtSumSys', 'OPR1.WtSumLoc'}</t>
+          <t>{'OPR1.WtSumLoc', 'OPR1.CloseDate', 'OPR1.WtSumSys'}</t>
         </is>
       </c>
       <c r="T488" t="inlineStr">
@@ -39570,7 +39570,7 @@
       </c>
       <c r="S489" t="inlineStr">
         <is>
-          <t>{'OPRC.PrcName', 'OPRC.PrcCode', 'OPRC.DataSource', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.Balance'}</t>
+          <t>{'OPRC.PrcCode', 'OPRC.PrcName', 'OPRC.Balance', 'OPRC.Active', 'OPRC.ValidFrom', 'OPRC.DataSource'}</t>
         </is>
       </c>
       <c r="T489" t="inlineStr">
@@ -39650,7 +39650,7 @@
       </c>
       <c r="S490" t="inlineStr">
         <is>
-          <t>{'OOPR.RealSumLoc', 'OOPR.RealSumSys', 'OOPR.CloPrcnt', 'OOPR.RealProfS', 'OOPR.RealProfL', 'OOPR.CardName'}</t>
+          <t>{'OOPR.RealProfL', 'OOPR.RealSumLoc', 'OOPR.CardName', 'OOPR.RealSumSys', 'OOPR.RealProfS', 'OOPR.CloPrcnt'}</t>
         </is>
       </c>
       <c r="T490" t="inlineStr">
@@ -39730,7 +39730,7 @@
       </c>
       <c r="S491" t="inlineStr">
         <is>
-          <t>{'OPR1.CloseDate', 'OPR1.ClosePrcnt', 'OPR1.OpenDate'}</t>
+          <t>{'OPR1.ClosePrcnt', 'OPR1.OpenDate', 'OPR1.CloseDate'}</t>
         </is>
       </c>
       <c r="T491" t="inlineStr">
@@ -39810,7 +39810,7 @@
       </c>
       <c r="S492" t="inlineStr">
         <is>
-          <t>{'OOPR.Status', 'OOPR.OpenDate'}</t>
+          <t>{'OOPR.OpenDate', 'OOPR.Status'}</t>
         </is>
       </c>
       <c r="T492" t="inlineStr">
@@ -39890,7 +39890,7 @@
       </c>
       <c r="S493" t="inlineStr">
         <is>
-          <t>{'OPRC.DimCode', 'OPRC.PrcName'}</t>
+          <t>{'OPRC.PrcName', 'OPRC.DimCode'}</t>
         </is>
       </c>
       <c r="T493" t="inlineStr">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="P495" t="inlineStr">
         <is>
-          <t>{'OCTR', 'CTR1'}</t>
+          <t>{'CTR1', 'OCTR'}</t>
         </is>
       </c>
       <c r="Q495" t="inlineStr">
@@ -40210,7 +40210,7 @@
       </c>
       <c r="S497" t="inlineStr">
         <is>
-          <t>{'OINS.country', 'OINS.state'}</t>
+          <t>{'OINS.state', 'OINS.country'}</t>
         </is>
       </c>
       <c r="T497" t="inlineStr">
@@ -40370,7 +40370,7 @@
       </c>
       <c r="S499" t="inlineStr">
         <is>
-          <t>{'OQUE.email', 'OQUE.manager', 'OQUE.descript'}</t>
+          <t>{'OQUE.descript', 'OQUE.email', 'OQUE.manager'}</t>
         </is>
       </c>
       <c r="T499" t="inlineStr">
@@ -40530,7 +40530,7 @@
       </c>
       <c r="S501" t="inlineStr">
         <is>
-          <t>{'OSCL.AssignDate', 'OSCL.origin', 'OSCO.originID', 'OSCL.resolOnDat', 'OSCL.respOnDate', 'OSCO.Name'}</t>
+          <t>{'OSCL.resolOnDat', 'OSCO.Name', 'OSCL.origin', 'OSCO.originID', 'OSCL.respOnDate', 'OSCL.AssignDate'}</t>
         </is>
       </c>
       <c r="T501" t="inlineStr">
@@ -40690,7 +40690,7 @@
       </c>
       <c r="S503" t="inlineStr">
         <is>
-          <t>{'OCTR.CstmrCode', 'OCTR.CstmrName', 'OSCL.customer'}</t>
+          <t>{'OCTR.CstmrName', 'OSCL.customer', 'OCTR.CstmrCode'}</t>
         </is>
       </c>
       <c r="T503" t="inlineStr">
@@ -40770,7 +40770,7 @@
       </c>
       <c r="S504" t="inlineStr">
         <is>
-          <t>{'OINS.itemCode', 'OINS.internalSN', 'OINS.custmrName'}</t>
+          <t>{'OINS.internalSN', 'OINS.custmrName', 'OINS.itemCode'}</t>
         </is>
       </c>
       <c r="T504" t="inlineStr">
